--- a/hi1.xlsx
+++ b/hi1.xlsx
@@ -1,45 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugang/Documents/GitHub/backtest/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7599A35C-3162-434E-91AA-3E55AB84ABCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KRW-BTC" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KRW-ETH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KRW-XRP" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KRW-DOGE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KRW-LTC" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KRW-BTC" sheetId="2" r:id="rId2"/>
+    <sheet name="KRW-ETH" sheetId="3" r:id="rId3"/>
+    <sheet name="KRW-XRP" sheetId="4" r:id="rId4"/>
+    <sheet name="KRW-DOGE" sheetId="5" r:id="rId5"/>
+    <sheet name="KRW-LTC" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,96 +83,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,135 +410,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>44585.375</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>44255000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>45600000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>40871000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>44731000</v>
       </c>
-      <c r="F2" t="n">
-        <v>10984.73257578</v>
-      </c>
-      <c r="G2" t="n">
-        <v>468862727172.8159</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="F2">
+        <v>10984.732575780001</v>
+      </c>
+      <c r="G2">
+        <v>468862727172.81592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>44586.375</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>44764000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>45572000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>43511000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>44909000</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>6937.03740715</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>308479518001.6424</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>44587.375</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>44905000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>46350000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>44520000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>45508000</v>
       </c>
-      <c r="F4" t="n">
-        <v>2941.65914304</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>2941.6591430399999</v>
+      </c>
+      <c r="G4">
         <v>133839529588.8409</v>
       </c>
     </row>
@@ -569,118 +527,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>44585.375</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3100000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3101000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2672000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>2980000</v>
       </c>
-      <c r="F2" t="n">
-        <v>183862.16762787</v>
-      </c>
-      <c r="G2" t="n">
-        <v>522767948650.5325</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="F2">
+        <v>183862.16762786999</v>
+      </c>
+      <c r="G2">
+        <v>522767948650.53247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>44586.375</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2980000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3044000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2860000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2986000</v>
       </c>
-      <c r="F3" t="n">
-        <v>86202.77205434001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>254167276469.5026</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="F3">
+        <v>86202.772054340006</v>
+      </c>
+      <c r="G3">
+        <v>254167276469.50259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>44587.375</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2987000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3062000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2944000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3003000</v>
       </c>
-      <c r="F4" t="n">
-        <v>30453.06932977</v>
-      </c>
-      <c r="G4" t="n">
-        <v>91526233964.67458</v>
+      <c r="F4">
+        <v>30453.069329770002</v>
+      </c>
+      <c r="G4">
+        <v>91526233964.674576</v>
       </c>
     </row>
   </sheetData>
@@ -689,118 +629,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>44585.375</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>768</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>769</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>688</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>748</v>
       </c>
-      <c r="F2" t="n">
-        <v>464452197.1004291</v>
-      </c>
-      <c r="G2" t="n">
-        <v>333697611754.5345</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="F2">
+        <v>464452197.10042912</v>
+      </c>
+      <c r="G2">
+        <v>333697611754.53448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>44586.375</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>748</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>758</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>716</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>750</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>267790446.6266019</v>
       </c>
-      <c r="G3" t="n">
-        <v>196908530740.4735</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="G3">
+        <v>196908530740.47351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>44587.375</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>750</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>775</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>742</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>759</v>
       </c>
-      <c r="F4" t="n">
-        <v>129670634.7786896</v>
-      </c>
-      <c r="G4" t="n">
-        <v>98172864360.56114</v>
+      <c r="F4">
+        <v>129670634.77868959</v>
+      </c>
+      <c r="G4">
+        <v>98172864360.561142</v>
       </c>
     </row>
   </sheetData>
@@ -809,118 +731,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>44585.375</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>174</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>174</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>156</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>168</v>
       </c>
-      <c r="F2" t="n">
-        <v>942471567.9636402</v>
-      </c>
-      <c r="G2" t="n">
-        <v>153318431578.051</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="F2">
+        <v>942471567.96364021</v>
+      </c>
+      <c r="G2">
+        <v>153318431578.05099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>44586.375</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>168</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>185</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>161</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>173</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1034866887.690019</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>176784413417.1167</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>44587.375</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>173</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>180</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>172</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>175</v>
       </c>
-      <c r="F4" t="n">
-        <v>240662162.8665144</v>
-      </c>
-      <c r="G4" t="n">
-        <v>42323261451.57257</v>
+      <c r="F4">
+        <v>240662162.86651441</v>
+      </c>
+      <c r="G4">
+        <v>42323261451.572571</v>
       </c>
     </row>
   </sheetData>
@@ -929,118 +833,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>44585.375</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>137000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>137100</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>120900</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>133850</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>53710.92576554</v>
       </c>
-      <c r="G2" t="n">
-        <v>6843797049.709434</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="G2">
+        <v>6843797049.7094336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>44586.375</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>133850</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>133900</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>128550</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>131000</v>
       </c>
-      <c r="F3" t="n">
-        <v>30886.72813156</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>30886.728131560001</v>
+      </c>
+      <c r="G3">
         <v>4053348488.628942</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>44587.375</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>131200</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>135000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>129800</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>132150</v>
       </c>
-      <c r="F4" t="n">
-        <v>17755.96223499</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2352010130.295632</v>
+      <c r="F4">
+        <v>17755.962234989998</v>
+      </c>
+      <c r="G4">
+        <v>2352010130.2956319</v>
       </c>
     </row>
   </sheetData>

--- a/hi1.xlsx
+++ b/hi1.xlsx
@@ -496,71 +496,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44587.375</v>
+        <v>44588.375</v>
       </c>
       <c r="B2" t="n">
-        <v>44905000</v>
+        <v>45100000</v>
       </c>
       <c r="C2" t="n">
-        <v>47460000</v>
+        <v>45844000</v>
       </c>
       <c r="D2" t="n">
-        <v>44520000</v>
+        <v>43786000</v>
       </c>
       <c r="E2" t="n">
-        <v>45100000</v>
+        <v>45809000</v>
       </c>
       <c r="F2" t="n">
-        <v>10144.39442742</v>
+        <v>7488.1448014</v>
       </c>
       <c r="G2" t="n">
-        <v>465503093047.9052</v>
+        <v>335012964798.7789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44588.375</v>
+        <v>44589.375</v>
       </c>
       <c r="B3" t="n">
-        <v>45100000</v>
+        <v>45800000</v>
       </c>
       <c r="C3" t="n">
-        <v>45844000</v>
+        <v>46890000</v>
       </c>
       <c r="D3" t="n">
-        <v>43786000</v>
+        <v>45060000</v>
       </c>
       <c r="E3" t="n">
-        <v>45809000</v>
+        <v>46588000</v>
       </c>
       <c r="F3" t="n">
-        <v>7488.1448014</v>
+        <v>5565.15427472</v>
       </c>
       <c r="G3" t="n">
-        <v>335012964798.7789</v>
+        <v>254762670308.8096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44589.375</v>
+        <v>44590.375</v>
       </c>
       <c r="B4" t="n">
-        <v>45800000</v>
+        <v>46592000</v>
       </c>
       <c r="C4" t="n">
-        <v>45820000</v>
+        <v>46951000</v>
       </c>
       <c r="D4" t="n">
-        <v>45671000</v>
+        <v>46500000</v>
       </c>
       <c r="E4" t="n">
-        <v>45749000</v>
+        <v>46731000</v>
       </c>
       <c r="F4" t="n">
-        <v>31.35892707</v>
+        <v>246.33369278</v>
       </c>
       <c r="G4" t="n">
-        <v>1434149533.84811</v>
+        <v>11526115067.49973</v>
       </c>
     </row>
   </sheetData>
@@ -616,71 +616,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44587.375</v>
+        <v>44588.375</v>
       </c>
       <c r="B2" t="n">
+        <v>3016000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3093000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2884000</v>
+      </c>
+      <c r="E2" t="n">
         <v>2987000</v>
       </c>
-      <c r="C2" t="n">
-        <v>3318000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2944000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3017000</v>
-      </c>
       <c r="F2" t="n">
-        <v>154884.87661006</v>
+        <v>107811.16720991</v>
       </c>
       <c r="G2" t="n">
-        <v>480520994619.4272</v>
+        <v>321600946482.8601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44588.375</v>
+        <v>44589.375</v>
       </c>
       <c r="B3" t="n">
-        <v>3016000</v>
+        <v>2989000</v>
       </c>
       <c r="C3" t="n">
-        <v>3093000</v>
+        <v>3158000</v>
       </c>
       <c r="D3" t="n">
-        <v>2884000</v>
+        <v>2931000</v>
       </c>
       <c r="E3" t="n">
-        <v>2987000</v>
+        <v>3139000</v>
       </c>
       <c r="F3" t="n">
-        <v>107811.16720991</v>
+        <v>87197.50029696</v>
       </c>
       <c r="G3" t="n">
-        <v>321600946482.8601</v>
+        <v>262664365463.8354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44589.375</v>
+        <v>44590.375</v>
       </c>
       <c r="B4" t="n">
-        <v>2989000</v>
+        <v>3139000</v>
       </c>
       <c r="C4" t="n">
-        <v>2989000</v>
+        <v>3196000</v>
       </c>
       <c r="D4" t="n">
-        <v>2978000</v>
+        <v>3130000</v>
       </c>
       <c r="E4" t="n">
-        <v>2985000</v>
+        <v>3162000</v>
       </c>
       <c r="F4" t="n">
-        <v>302.21410505</v>
+        <v>5587.25281126</v>
       </c>
       <c r="G4" t="n">
-        <v>901438120.79046</v>
+        <v>17723418899.85154</v>
       </c>
     </row>
   </sheetData>
@@ -736,71 +736,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44587.375</v>
+        <v>44588.375</v>
       </c>
       <c r="B2" t="n">
+        <v>758</v>
+      </c>
+      <c r="C2" t="n">
+        <v>769</v>
+      </c>
+      <c r="D2" t="n">
+        <v>726</v>
+      </c>
+      <c r="E2" t="n">
         <v>750</v>
       </c>
-      <c r="C2" t="n">
-        <v>804</v>
-      </c>
-      <c r="D2" t="n">
-        <v>742</v>
-      </c>
-      <c r="E2" t="n">
-        <v>758</v>
-      </c>
       <c r="F2" t="n">
-        <v>446580040.3939347</v>
+        <v>291404617.1090271</v>
       </c>
       <c r="G2" t="n">
-        <v>341951632445.1496</v>
+        <v>217034448198.2966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44588.375</v>
+        <v>44589.375</v>
       </c>
       <c r="B3" t="n">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="C3" t="n">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="D3" t="n">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="E3" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="F3" t="n">
-        <v>291404617.1090271</v>
+        <v>225772118.9840843</v>
       </c>
       <c r="G3" t="n">
-        <v>217034448198.2966</v>
+        <v>168440332967.6442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44589.375</v>
+        <v>44590.375</v>
       </c>
       <c r="B4" t="n">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="C4" t="n">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="D4" t="n">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E4" t="n">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="F4" t="n">
-        <v>914318.6456593</v>
+        <v>13912506.12542235</v>
       </c>
       <c r="G4" t="n">
-        <v>684673238.2952293</v>
+        <v>10543763388.17662</v>
       </c>
     </row>
   </sheetData>
@@ -856,71 +856,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44587.375</v>
+        <v>44588.375</v>
       </c>
       <c r="B2" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D2" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E2" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F2" t="n">
-        <v>884029173.7069415</v>
+        <v>564943201.1921173</v>
       </c>
       <c r="G2" t="n">
-        <v>158494379192.2254</v>
+        <v>98398448976.05563</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44588.375</v>
+        <v>44589.375</v>
       </c>
       <c r="B3" t="n">
+        <v>174</v>
+      </c>
+      <c r="C3" t="n">
+        <v>176</v>
+      </c>
+      <c r="D3" t="n">
+        <v>172</v>
+      </c>
+      <c r="E3" t="n">
         <v>175</v>
       </c>
-      <c r="C3" t="n">
-        <v>179</v>
-      </c>
-      <c r="D3" t="n">
-        <v>169</v>
-      </c>
-      <c r="E3" t="n">
-        <v>174</v>
-      </c>
       <c r="F3" t="n">
-        <v>564943201.1921173</v>
+        <v>369191867.0923505</v>
       </c>
       <c r="G3" t="n">
-        <v>98398448976.05563</v>
+        <v>64133258381.9296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44589.375</v>
+        <v>44590.375</v>
       </c>
       <c r="B4" t="n">
+        <v>175</v>
+      </c>
+      <c r="C4" t="n">
+        <v>177</v>
+      </c>
+      <c r="D4" t="n">
         <v>174</v>
       </c>
-      <c r="C4" t="n">
-        <v>174</v>
-      </c>
-      <c r="D4" t="n">
-        <v>173</v>
-      </c>
       <c r="E4" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" t="n">
-        <v>1500946.59483651</v>
+        <v>29353197.70610612</v>
       </c>
       <c r="G4" t="n">
-        <v>260691571.4401517</v>
+        <v>5159938283.849059</v>
       </c>
     </row>
   </sheetData>
@@ -976,71 +976,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44587.375</v>
+        <v>44588.375</v>
       </c>
       <c r="B2" t="n">
         <v>131200</v>
       </c>
       <c r="C2" t="n">
-        <v>141800</v>
+        <v>134600</v>
       </c>
       <c r="D2" t="n">
-        <v>128600</v>
+        <v>127300</v>
       </c>
       <c r="E2" t="n">
-        <v>131050</v>
+        <v>131750</v>
       </c>
       <c r="F2" t="n">
-        <v>59124.12094073</v>
+        <v>33530.96650039</v>
       </c>
       <c r="G2" t="n">
-        <v>7954706902.555622</v>
+        <v>4397541988.535115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44588.375</v>
+        <v>44589.375</v>
       </c>
       <c r="B3" t="n">
-        <v>131200</v>
+        <v>131900</v>
       </c>
       <c r="C3" t="n">
-        <v>134600</v>
+        <v>135800</v>
       </c>
       <c r="D3" t="n">
-        <v>127300</v>
+        <v>130450</v>
       </c>
       <c r="E3" t="n">
-        <v>131750</v>
+        <v>135300</v>
       </c>
       <c r="F3" t="n">
-        <v>33530.96650039</v>
+        <v>24579.96101898</v>
       </c>
       <c r="G3" t="n">
-        <v>4397541988.535115</v>
+        <v>3262935601.069557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44589.375</v>
+        <v>44590.375</v>
       </c>
       <c r="B4" t="n">
-        <v>131900</v>
+        <v>135300</v>
       </c>
       <c r="C4" t="n">
-        <v>131950</v>
+        <v>136250</v>
       </c>
       <c r="D4" t="n">
-        <v>131500</v>
+        <v>135150</v>
       </c>
       <c r="E4" t="n">
-        <v>131900</v>
+        <v>135550</v>
       </c>
       <c r="F4" t="n">
-        <v>117.00136656</v>
+        <v>1433.16959224</v>
       </c>
       <c r="G4" t="n">
-        <v>15410325.401387</v>
+        <v>194602228.2270345</v>
       </c>
     </row>
   </sheetData>

--- a/hi1.xlsx
+++ b/hi1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugang/Documents/GitHub/backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7D5F4-CBD1-BE4D-B72A-003906C16101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6658C3B-F836-0142-9590-662C209687F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32620" yWindow="-940" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,71 +467,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44590.375</v>
+        <v>44591.375</v>
       </c>
       <c r="B2">
-        <v>46592000</v>
+        <v>47144000</v>
       </c>
       <c r="C2">
-        <v>47746000</v>
+        <v>47500000</v>
       </c>
       <c r="D2">
-        <v>46180000</v>
+        <v>46498000</v>
       </c>
       <c r="E2">
-        <v>47146000</v>
+        <v>47208000</v>
       </c>
       <c r="F2">
-        <v>3980.1677622299999</v>
+        <v>2868.98523419</v>
       </c>
       <c r="G2">
-        <v>186286304051.2261</v>
+        <v>135027081461.6324</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44591.375</v>
+        <v>44592.375</v>
       </c>
       <c r="B3">
-        <v>47144000</v>
+        <v>47208000</v>
       </c>
       <c r="C3">
-        <v>47500000</v>
+        <v>47647000</v>
       </c>
       <c r="D3">
-        <v>46498000</v>
+        <v>45624000</v>
       </c>
       <c r="E3">
-        <v>47208000</v>
+        <v>47266000</v>
       </c>
       <c r="F3">
-        <v>2868.98523419</v>
+        <v>4554.2652059499997</v>
       </c>
       <c r="G3">
-        <v>135027081461.6324</v>
+        <v>211275432696.92529</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44592.375</v>
+        <v>44593.375</v>
       </c>
       <c r="B4">
-        <v>47208000</v>
+        <v>47304000</v>
       </c>
       <c r="C4">
-        <v>47264000</v>
+        <v>47514000</v>
       </c>
       <c r="D4">
-        <v>47131000</v>
+        <v>47151000</v>
       </c>
       <c r="E4">
-        <v>47264000</v>
+        <v>47310000</v>
       </c>
       <c r="F4">
-        <v>2.2448543500000002</v>
+        <v>66.344300329999996</v>
       </c>
       <c r="G4">
-        <v>105947744.32800999</v>
+        <v>3142002886.6379099</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="B3:E4"/>
+      <selection activeCell="B3" sqref="B3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -571,71 +571,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44590.375</v>
+        <v>44591.375</v>
       </c>
       <c r="B2">
-        <v>3139000</v>
+        <v>3218000</v>
       </c>
       <c r="C2">
-        <v>3249000</v>
+        <v>3278000</v>
       </c>
       <c r="D2">
-        <v>3121000</v>
+        <v>3165000</v>
       </c>
       <c r="E2">
-        <v>3217000</v>
+        <v>3243000</v>
       </c>
       <c r="F2">
-        <v>68155.74949735</v>
+        <v>42594.335783659997</v>
       </c>
       <c r="G2">
-        <v>215973892287.49411</v>
+        <v>137306271507.6368</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44591.375</v>
+        <v>44592.375</v>
       </c>
       <c r="B3">
-        <v>3218000</v>
+        <v>3241000</v>
       </c>
       <c r="C3">
-        <v>3278000</v>
+        <v>3330000</v>
       </c>
       <c r="D3">
-        <v>3165000</v>
+        <v>3080000</v>
       </c>
       <c r="E3">
-        <v>3243000</v>
+        <v>3301000</v>
       </c>
       <c r="F3">
-        <v>42594.335783659997</v>
+        <v>56375.818558229999</v>
       </c>
       <c r="G3">
-        <v>137306271507.6368</v>
+        <v>180499880511.92789</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44592.375</v>
+        <v>44593.375</v>
       </c>
       <c r="B4">
-        <v>3241000</v>
+        <v>3301000</v>
       </c>
       <c r="C4">
-        <v>3248000</v>
+        <v>3329000</v>
       </c>
       <c r="D4">
-        <v>3240000</v>
+        <v>3290000</v>
       </c>
       <c r="E4">
-        <v>3247000</v>
+        <v>3312000</v>
       </c>
       <c r="F4">
-        <v>59.07105945</v>
+        <v>1168.94852145</v>
       </c>
       <c r="G4">
-        <v>191702602.43988001</v>
+        <v>3875297720.0938902</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +648,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -675,71 +675,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44590.375</v>
+        <v>44591.375</v>
       </c>
       <c r="B2">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="C2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D2">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="E2">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="F2">
-        <v>183644119.50225651</v>
+        <v>125799885.76400471</v>
       </c>
       <c r="G2">
-        <v>139828193157.68521</v>
+        <v>95784118390.016251</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44591.375</v>
+        <v>44592.375</v>
       </c>
       <c r="B3">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="C3">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D3">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="E3">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="F3">
-        <v>125799885.76400471</v>
+        <v>162334705.40502951</v>
       </c>
       <c r="G3">
-        <v>95784118390.016251</v>
+        <v>119688046917.7554</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44592.375</v>
+        <v>44593.375</v>
       </c>
       <c r="B4">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C4">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="D4">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E4">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="F4">
-        <v>173584.08335622001</v>
+        <v>3947818.5161037999</v>
       </c>
       <c r="G4">
-        <v>130290874.9758282</v>
+        <v>2992814782.7527971</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +752,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="B3:E4"/>
+      <selection activeCell="B3" sqref="B3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -779,71 +779,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44590.375</v>
+        <v>44591.375</v>
       </c>
       <c r="B2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2">
         <v>178</v>
       </c>
       <c r="D2">
+        <v>172</v>
+      </c>
+      <c r="E2">
         <v>174</v>
       </c>
-      <c r="E2">
-        <v>176</v>
-      </c>
       <c r="F2">
-        <v>313413709.53720993</v>
+        <v>236759760.96358159</v>
       </c>
       <c r="G2">
-        <v>55191318920.71965</v>
+        <v>41597432349.251549</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44591.375</v>
+        <v>44592.375</v>
       </c>
       <c r="B3">
+        <v>173</v>
+      </c>
+      <c r="C3">
         <v>176</v>
       </c>
-      <c r="C3">
-        <v>178</v>
-      </c>
       <c r="D3">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E3">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F3">
-        <v>236759760.96358159</v>
+        <v>206014321.6188055</v>
       </c>
       <c r="G3">
-        <v>41597432349.251549</v>
+        <v>35452413989.587372</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44592.375</v>
+        <v>44593.375</v>
       </c>
       <c r="B4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4">
+        <v>176</v>
+      </c>
+      <c r="D4">
         <v>174</v>
       </c>
-      <c r="D4">
-        <v>173</v>
-      </c>
       <c r="E4">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F4">
-        <v>50386.887386820003</v>
+        <v>9251719.4115227591</v>
       </c>
       <c r="G4">
-        <v>8719240.3346097693</v>
+        <v>1615538323.9143591</v>
       </c>
     </row>
   </sheetData>
@@ -883,71 +883,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44590.375</v>
+        <v>44591.375</v>
       </c>
       <c r="B2">
-        <v>135300</v>
+        <v>137000</v>
       </c>
       <c r="C2">
-        <v>138350</v>
+        <v>139500</v>
       </c>
       <c r="D2">
-        <v>133300</v>
+        <v>133600</v>
       </c>
       <c r="E2">
-        <v>137000</v>
+        <v>135350</v>
       </c>
       <c r="F2">
-        <v>37313.643270250002</v>
+        <v>33626.910359039997</v>
       </c>
       <c r="G2">
-        <v>5069510376.1119909</v>
+        <v>4594460871.4970961</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44591.375</v>
+        <v>44592.375</v>
       </c>
       <c r="B3">
-        <v>137000</v>
+        <v>135350</v>
       </c>
       <c r="C3">
-        <v>139500</v>
+        <v>136950</v>
       </c>
       <c r="D3">
-        <v>133600</v>
+        <v>129550</v>
       </c>
       <c r="E3">
-        <v>135350</v>
+        <v>134700</v>
       </c>
       <c r="F3">
-        <v>33626.910359039997</v>
+        <v>31175.595205630001</v>
       </c>
       <c r="G3">
-        <v>4594460871.4970961</v>
+        <v>4133669178.0202451</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44592.375</v>
+        <v>44593.375</v>
       </c>
       <c r="B4">
-        <v>135350</v>
+        <v>134500</v>
       </c>
       <c r="C4">
-        <v>135500</v>
+        <v>134950</v>
       </c>
       <c r="D4">
-        <v>135100</v>
+        <v>134250</v>
       </c>
       <c r="E4">
-        <v>135500</v>
+        <v>134450</v>
       </c>
       <c r="F4">
-        <v>11.16591683</v>
+        <v>467.63093906</v>
       </c>
       <c r="G4">
-        <v>1511391.178078</v>
+        <v>62920087.062337503</v>
       </c>
     </row>
   </sheetData>

--- a/hi1.xlsx
+++ b/hi1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugang/Documents/GitHub/backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6658C3B-F836-0142-9590-662C209687F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F65EE1-D045-1648-B16C-57CDAF370299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,71 +467,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44591.375</v>
+        <v>44592.375</v>
       </c>
       <c r="B2">
-        <v>47144000</v>
+        <v>47208000</v>
       </c>
       <c r="C2">
-        <v>47500000</v>
+        <v>47647000</v>
       </c>
       <c r="D2">
-        <v>46498000</v>
+        <v>45624000</v>
       </c>
       <c r="E2">
-        <v>47208000</v>
+        <v>47266000</v>
       </c>
       <c r="F2">
-        <v>2868.98523419</v>
+        <v>4554.2652059499997</v>
       </c>
       <c r="G2">
-        <v>135027081461.6324</v>
+        <v>211275432696.92529</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44592.375</v>
+        <v>44593.375</v>
       </c>
       <c r="B3">
-        <v>47208000</v>
+        <v>47304000</v>
       </c>
       <c r="C3">
-        <v>47647000</v>
+        <v>48270000</v>
       </c>
       <c r="D3">
-        <v>45624000</v>
+        <v>46869000</v>
       </c>
       <c r="E3">
-        <v>47266000</v>
+        <v>47760000</v>
       </c>
       <c r="F3">
-        <v>4554.2652059499997</v>
+        <v>3944.0016097600001</v>
       </c>
       <c r="G3">
-        <v>211275432696.92529</v>
+        <v>187434977994.13831</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44593.375</v>
+        <v>44594.375</v>
       </c>
       <c r="B4">
-        <v>47304000</v>
+        <v>47784000</v>
       </c>
       <c r="C4">
-        <v>47514000</v>
+        <v>47837000</v>
       </c>
       <c r="D4">
-        <v>47151000</v>
+        <v>47743000</v>
       </c>
       <c r="E4">
-        <v>47310000</v>
+        <v>47829000</v>
       </c>
       <c r="F4">
-        <v>66.344300329999996</v>
+        <v>8.5596505300000008</v>
       </c>
       <c r="G4">
-        <v>3142002886.6379099</v>
+        <v>409132460.93575001</v>
       </c>
     </row>
   </sheetData>
@@ -571,71 +571,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44591.375</v>
+        <v>44592.375</v>
       </c>
       <c r="B2">
-        <v>3218000</v>
+        <v>3241000</v>
       </c>
       <c r="C2">
-        <v>3278000</v>
+        <v>3330000</v>
       </c>
       <c r="D2">
-        <v>3165000</v>
+        <v>3080000</v>
       </c>
       <c r="E2">
-        <v>3243000</v>
+        <v>3301000</v>
       </c>
       <c r="F2">
-        <v>42594.335783659997</v>
+        <v>56375.818558229999</v>
       </c>
       <c r="G2">
-        <v>137306271507.6368</v>
+        <v>180499880511.92789</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44592.375</v>
+        <v>44593.375</v>
       </c>
       <c r="B3">
-        <v>3241000</v>
+        <v>3301000</v>
       </c>
       <c r="C3">
-        <v>3330000</v>
+        <v>3457000</v>
       </c>
       <c r="D3">
-        <v>3080000</v>
+        <v>3290000</v>
       </c>
       <c r="E3">
-        <v>3301000</v>
+        <v>3440000</v>
       </c>
       <c r="F3">
-        <v>56375.818558229999</v>
+        <v>51964.70016778</v>
       </c>
       <c r="G3">
-        <v>180499880511.92789</v>
+        <v>176423501970.77881</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44593.375</v>
+        <v>44594.375</v>
       </c>
       <c r="B4">
-        <v>3301000</v>
+        <v>3440000</v>
       </c>
       <c r="C4">
-        <v>3329000</v>
+        <v>3449000</v>
       </c>
       <c r="D4">
-        <v>3290000</v>
+        <v>3440000</v>
       </c>
       <c r="E4">
-        <v>3312000</v>
+        <v>3449000</v>
       </c>
       <c r="F4">
-        <v>1168.94852145</v>
+        <v>104.13427196000001</v>
       </c>
       <c r="G4">
-        <v>3875297720.0938902</v>
+        <v>358794386.46968001</v>
       </c>
     </row>
   </sheetData>
@@ -675,71 +675,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44591.375</v>
+        <v>44592.375</v>
       </c>
       <c r="B2">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="C2">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D2">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="E2">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="F2">
-        <v>125799885.76400471</v>
+        <v>162334705.40502951</v>
       </c>
       <c r="G2">
-        <v>95784118390.016251</v>
+        <v>119688046917.7554</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44592.375</v>
+        <v>44593.375</v>
       </c>
       <c r="B3">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C3">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="D3">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="E3">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="F3">
-        <v>162334705.40502951</v>
+        <v>144628859.83577219</v>
       </c>
       <c r="G3">
-        <v>119688046917.7554</v>
+        <v>110673623485.62289</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44593.375</v>
+        <v>44594.375</v>
       </c>
       <c r="B4">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="C4">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="D4">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="E4">
-        <v>756</v>
+        <v>777</v>
       </c>
       <c r="F4">
-        <v>3947818.5161037999</v>
+        <v>302988.13678186003</v>
       </c>
       <c r="G4">
-        <v>2992814782.7527971</v>
+        <v>235100385.26724699</v>
       </c>
     </row>
   </sheetData>
@@ -779,71 +779,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44591.375</v>
+        <v>44592.375</v>
       </c>
       <c r="B2">
+        <v>173</v>
+      </c>
+      <c r="C2">
         <v>176</v>
       </c>
-      <c r="C2">
-        <v>178</v>
-      </c>
       <c r="D2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F2">
-        <v>236759760.96358159</v>
+        <v>206014321.6188055</v>
       </c>
       <c r="G2">
-        <v>41597432349.251549</v>
+        <v>35452413989.587372</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44592.375</v>
+        <v>44593.375</v>
       </c>
       <c r="B3">
+        <v>174</v>
+      </c>
+      <c r="C3">
+        <v>178</v>
+      </c>
+      <c r="D3">
         <v>173</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>176</v>
       </c>
-      <c r="D3">
-        <v>169</v>
-      </c>
-      <c r="E3">
-        <v>175</v>
-      </c>
       <c r="F3">
-        <v>206014321.6188055</v>
+        <v>241123100.1355828</v>
       </c>
       <c r="G3">
-        <v>35452413989.587372</v>
+        <v>42335129142.480469</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44593.375</v>
+        <v>44594.375</v>
       </c>
       <c r="B4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4">
         <v>176</v>
       </c>
       <c r="D4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E4">
         <v>175</v>
       </c>
       <c r="F4">
-        <v>9251719.4115227591</v>
+        <v>125599.63054442999</v>
       </c>
       <c r="G4">
-        <v>1615538323.9143591</v>
+        <v>22011084.827425878</v>
       </c>
     </row>
   </sheetData>
@@ -883,71 +883,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44591.375</v>
+        <v>44592.375</v>
       </c>
       <c r="B2">
-        <v>137000</v>
+        <v>135350</v>
       </c>
       <c r="C2">
-        <v>139500</v>
+        <v>136950</v>
       </c>
       <c r="D2">
-        <v>133600</v>
+        <v>129550</v>
       </c>
       <c r="E2">
-        <v>135350</v>
+        <v>134700</v>
       </c>
       <c r="F2">
-        <v>33626.910359039997</v>
+        <v>31175.595205630001</v>
       </c>
       <c r="G2">
-        <v>4594460871.4970961</v>
+        <v>4133669178.0202451</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44592.375</v>
+        <v>44593.375</v>
       </c>
       <c r="B3">
-        <v>135350</v>
+        <v>134500</v>
       </c>
       <c r="C3">
-        <v>136950</v>
+        <v>144400</v>
       </c>
       <c r="D3">
-        <v>129550</v>
+        <v>133750</v>
       </c>
       <c r="E3">
-        <v>134700</v>
+        <v>141900</v>
       </c>
       <c r="F3">
-        <v>31175.595205630001</v>
+        <v>49106.362846000004</v>
       </c>
       <c r="G3">
-        <v>4133669178.0202451</v>
+        <v>6771858301.3176928</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44593.375</v>
+        <v>44594.375</v>
       </c>
       <c r="B4">
-        <v>134500</v>
+        <v>142150</v>
       </c>
       <c r="C4">
-        <v>134950</v>
+        <v>142450</v>
       </c>
       <c r="D4">
-        <v>134250</v>
+        <v>141900</v>
       </c>
       <c r="E4">
-        <v>134450</v>
+        <v>142300</v>
       </c>
       <c r="F4">
-        <v>467.63093906</v>
+        <v>113.39173954</v>
       </c>
       <c r="G4">
-        <v>62920087.062337503</v>
+        <v>16122999.5017765</v>
       </c>
     </row>
   </sheetData>

--- a/hi1.xlsx
+++ b/hi1.xlsx
@@ -1,85 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugang/Documents/GitHub/backtest/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F65EE1-D045-1648-B16C-57CDAF370299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="KRW-BTC" sheetId="2" r:id="rId2"/>
-    <sheet name="KRW-ETH" sheetId="3" r:id="rId3"/>
-    <sheet name="KRW-XRP" sheetId="4" r:id="rId4"/>
-    <sheet name="KRW-DOGE" sheetId="5" r:id="rId5"/>
-    <sheet name="KRW-LTC" sheetId="6" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KRW-BTC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KRW-ETH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KRW-XRP" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KRW-DOGE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KRW-LTC" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,46 +54,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,117 +431,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>44592.375</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>47208000</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>47647000</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>45624000</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>47266000</v>
       </c>
-      <c r="F2">
-        <v>4554.2652059499997</v>
-      </c>
-      <c r="G2">
-        <v>211275432696.92529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="F2" t="n">
+        <v>4554.26520595</v>
+      </c>
+      <c r="G2" t="n">
+        <v>211275432696.9253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>44593.375</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>47304000</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>48270000</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>46869000</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>47760000</v>
       </c>
-      <c r="F3">
-        <v>3944.0016097600001</v>
-      </c>
-      <c r="G3">
-        <v>187434977994.13831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="F3" t="n">
+        <v>3944.00160976</v>
+      </c>
+      <c r="G3" t="n">
+        <v>187434977994.1383</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>44594.375</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>47784000</v>
       </c>
-      <c r="C4">
-        <v>47837000</v>
-      </c>
-      <c r="D4">
-        <v>47743000</v>
-      </c>
-      <c r="E4">
-        <v>47829000</v>
-      </c>
-      <c r="F4">
-        <v>8.5596505300000008</v>
-      </c>
-      <c r="G4">
-        <v>409132460.93575001</v>
+      <c r="C4" t="n">
+        <v>47900000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46000000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>46424000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3664.88142013</v>
+      </c>
+      <c r="G4" t="n">
+        <v>172499220383.1788</v>
       </c>
     </row>
   </sheetData>
@@ -540,102 +569,118 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>44592.375</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>3241000</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>3330000</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>3080000</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>3301000</v>
       </c>
-      <c r="F2">
-        <v>56375.818558229999</v>
-      </c>
-      <c r="G2">
-        <v>180499880511.92789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="F2" t="n">
+        <v>56375.81855823</v>
+      </c>
+      <c r="G2" t="n">
+        <v>180499880511.9279</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>44593.375</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3301000</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>3457000</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>3290000</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>3440000</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>51964.70016778</v>
       </c>
-      <c r="G3">
-        <v>176423501970.77881</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="G3" t="n">
+        <v>176423501970.7788</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>44594.375</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>3440000</v>
       </c>
-      <c r="C4">
-        <v>3449000</v>
-      </c>
-      <c r="D4">
-        <v>3440000</v>
-      </c>
-      <c r="E4">
-        <v>3449000</v>
-      </c>
-      <c r="F4">
-        <v>104.13427196000001</v>
-      </c>
-      <c r="G4">
-        <v>358794386.46968001</v>
+      <c r="C4" t="n">
+        <v>3459000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3270000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3337000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>51580.200817</v>
+      </c>
+      <c r="G4" t="n">
+        <v>174110471303.827</v>
       </c>
     </row>
   </sheetData>
@@ -644,102 +689,118 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>44592.375</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>751</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>767</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>722</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>760</v>
       </c>
-      <c r="F2">
-        <v>162334705.40502951</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>162334705.4050295</v>
+      </c>
+      <c r="G2" t="n">
         <v>119688046917.7554</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>44593.375</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>760</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>777</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>752</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>776</v>
       </c>
-      <c r="F3">
-        <v>144628859.83577219</v>
-      </c>
-      <c r="G3">
-        <v>110673623485.62289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="F3" t="n">
+        <v>144628859.8357722</v>
+      </c>
+      <c r="G3" t="n">
+        <v>110673623485.6229</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>44594.375</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>776</v>
       </c>
-      <c r="C4">
-        <v>777</v>
-      </c>
-      <c r="D4">
-        <v>775</v>
-      </c>
-      <c r="E4">
-        <v>777</v>
-      </c>
-      <c r="F4">
-        <v>302988.13678186003</v>
-      </c>
-      <c r="G4">
-        <v>235100385.26724699</v>
+      <c r="C4" t="n">
+        <v>779</v>
+      </c>
+      <c r="D4" t="n">
+        <v>745</v>
+      </c>
+      <c r="E4" t="n">
+        <v>757</v>
+      </c>
+      <c r="F4" t="n">
+        <v>160675290.8845546</v>
+      </c>
+      <c r="G4" t="n">
+        <v>123105354855.7346</v>
       </c>
     </row>
   </sheetData>
@@ -748,102 +809,118 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>44592.375</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>173</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>176</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>169</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>175</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>206014321.6188055</v>
       </c>
-      <c r="G2">
-        <v>35452413989.587372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="G2" t="n">
+        <v>35452413989.58737</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>44593.375</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>174</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>178</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>173</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>176</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>241123100.1355828</v>
       </c>
-      <c r="G3">
-        <v>42335129142.480469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="G3" t="n">
+        <v>42335129142.48047</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>44594.375</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>175</v>
       </c>
-      <c r="C4">
-        <v>176</v>
-      </c>
-      <c r="D4">
-        <v>175</v>
-      </c>
-      <c r="E4">
-        <v>175</v>
-      </c>
-      <c r="F4">
-        <v>125599.63054442999</v>
-      </c>
-      <c r="G4">
-        <v>22011084.827425878</v>
+      <c r="C4" t="n">
+        <v>181</v>
+      </c>
+      <c r="D4" t="n">
+        <v>171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>173</v>
+      </c>
+      <c r="F4" t="n">
+        <v>342640339.1056101</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60420886937.4298</v>
       </c>
     </row>
   </sheetData>
@@ -852,102 +929,118 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>44592.375</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>135350</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>136950</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>129550</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>134700</v>
       </c>
-      <c r="F2">
-        <v>31175.595205630001</v>
-      </c>
-      <c r="G2">
-        <v>4133669178.0202451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="F2" t="n">
+        <v>31175.59520563</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4133669178.020245</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>44593.375</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>134500</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>144400</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>133750</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>141900</v>
       </c>
-      <c r="F3">
-        <v>49106.362846000004</v>
-      </c>
-      <c r="G3">
-        <v>6771858301.3176928</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="F3" t="n">
+        <v>49106.362846</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6771858301.317693</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>44594.375</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>142150</v>
       </c>
-      <c r="C4">
-        <v>142450</v>
-      </c>
-      <c r="D4">
-        <v>141900</v>
-      </c>
-      <c r="E4">
-        <v>142300</v>
-      </c>
-      <c r="F4">
-        <v>113.39173954</v>
-      </c>
-      <c r="G4">
-        <v>16122999.5017765</v>
+      <c r="C4" t="n">
+        <v>143150</v>
+      </c>
+      <c r="D4" t="n">
+        <v>134850</v>
+      </c>
+      <c r="E4" t="n">
+        <v>138200</v>
+      </c>
+      <c r="F4" t="n">
+        <v>48629.36496685</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6803270192.657636</v>
       </c>
     </row>
   </sheetData>

--- a/hi1.xlsx
+++ b/hi1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugang/Documents/GitHub/backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21401AB8-C441-5947-A9AF-7F0ADAA99E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35F31BB-6ADE-C547-BB63-1A88E28A1A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="-2000" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+      <selection activeCell="B5" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,117 +467,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44595.375</v>
+        <v>44596.375</v>
       </c>
       <c r="B2">
-        <v>45518000</v>
+        <v>45835000</v>
       </c>
       <c r="C2">
-        <v>45900000</v>
+        <v>50843000</v>
       </c>
       <c r="D2">
-        <v>44770000</v>
+        <v>45500000</v>
       </c>
       <c r="E2">
-        <v>45835000</v>
+        <v>50633000</v>
       </c>
       <c r="F2">
-        <v>3279.73787459</v>
+        <v>7451.4646505500004</v>
       </c>
       <c r="G2">
-        <v>148839125406.1171</v>
+        <v>355674962643.43878</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44596.375</v>
+        <v>44597.375</v>
       </c>
       <c r="B3">
-        <v>45835000</v>
+        <v>50613000</v>
       </c>
       <c r="C3">
-        <v>50843000</v>
+        <v>51488000</v>
       </c>
       <c r="D3">
-        <v>45500000</v>
+        <v>50216000</v>
       </c>
       <c r="E3">
-        <v>50633000</v>
+        <v>50788000</v>
       </c>
       <c r="F3">
-        <v>7451.4646505500004</v>
+        <v>5618.4222044300004</v>
       </c>
       <c r="G3">
-        <v>355674962643.43878</v>
+        <v>285441834169.823</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44597.375</v>
+        <v>44598.375</v>
       </c>
       <c r="B4">
-        <v>50613000</v>
+        <v>50788000</v>
       </c>
       <c r="C4">
-        <v>51488000</v>
+        <v>52022000</v>
       </c>
       <c r="D4">
-        <v>50216000</v>
+        <v>50400000</v>
       </c>
       <c r="E4">
-        <v>50788000</v>
+        <v>51732000</v>
       </c>
       <c r="F4">
-        <v>5618.4222044300004</v>
+        <v>4046.19621542</v>
       </c>
       <c r="G4">
-        <v>285441834169.823</v>
+        <v>206661446937.42889</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44598.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B5">
-        <v>50788000</v>
+        <v>51678000</v>
       </c>
       <c r="C5">
-        <v>52022000</v>
+        <v>54110000</v>
       </c>
       <c r="D5">
-        <v>50400000</v>
+        <v>51084000</v>
       </c>
       <c r="E5">
-        <v>51732000</v>
+        <v>53511000</v>
       </c>
       <c r="F5">
-        <v>4046.19621542</v>
+        <v>6414.9904576500003</v>
       </c>
       <c r="G5">
-        <v>206661446937.42889</v>
+        <v>337553682455.38922</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B6">
-        <v>51678000</v>
+        <v>53511000</v>
       </c>
       <c r="C6">
-        <v>51841000</v>
+        <v>53700000</v>
       </c>
       <c r="D6">
-        <v>51392000</v>
+        <v>53499000</v>
       </c>
       <c r="E6">
-        <v>51514000</v>
+        <v>53699000</v>
       </c>
       <c r="F6">
-        <v>131.12703572999999</v>
+        <v>18.37690478</v>
       </c>
       <c r="G6">
-        <v>6771202467.67449</v>
+        <v>984838929.93613005</v>
       </c>
     </row>
   </sheetData>
@@ -590,13 +590,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E6"/>
+      <selection activeCell="B5" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -620,117 +617,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44595.375</v>
+        <v>44596.375</v>
       </c>
       <c r="B2">
-        <v>3300000</v>
+        <v>3307000</v>
       </c>
       <c r="C2">
-        <v>3368000</v>
+        <v>3654000</v>
       </c>
       <c r="D2">
-        <v>3184000</v>
+        <v>3280000</v>
       </c>
       <c r="E2">
-        <v>3308000</v>
+        <v>3650000</v>
       </c>
       <c r="F2">
-        <v>54440.06189202</v>
+        <v>93357.017292610006</v>
       </c>
       <c r="G2">
-        <v>177574843051.52411</v>
+        <v>324433068312.76678</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44596.375</v>
+        <v>44597.375</v>
       </c>
       <c r="B3">
-        <v>3307000</v>
+        <v>3651000</v>
       </c>
       <c r="C3">
-        <v>3654000</v>
+        <v>3759000</v>
       </c>
       <c r="D3">
-        <v>3280000</v>
+        <v>3613000</v>
       </c>
       <c r="E3">
-        <v>3650000</v>
+        <v>3695000</v>
       </c>
       <c r="F3">
-        <v>93357.017292610006</v>
+        <v>63702.129504140001</v>
       </c>
       <c r="G3">
-        <v>324433068312.76678</v>
+        <v>234372047716.52579</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44597.375</v>
+        <v>44598.375</v>
       </c>
       <c r="B4">
-        <v>3651000</v>
+        <v>3697000</v>
       </c>
       <c r="C4">
-        <v>3759000</v>
+        <v>3753000</v>
       </c>
       <c r="D4">
-        <v>3613000</v>
+        <v>3610000</v>
       </c>
       <c r="E4">
-        <v>3695000</v>
+        <v>3733000</v>
       </c>
       <c r="F4">
-        <v>63702.129504140001</v>
+        <v>46035.86645817</v>
       </c>
       <c r="G4">
-        <v>234372047716.52579</v>
+        <v>169875741804.7713</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44598.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B5">
-        <v>3697000</v>
+        <v>3733000</v>
       </c>
       <c r="C5">
-        <v>3753000</v>
+        <v>3880000</v>
       </c>
       <c r="D5">
-        <v>3610000</v>
+        <v>3670000</v>
       </c>
       <c r="E5">
-        <v>3733000</v>
+        <v>3830000</v>
       </c>
       <c r="F5">
-        <v>46035.86645817</v>
+        <v>63054.546308899997</v>
       </c>
       <c r="G5">
-        <v>169875741804.7713</v>
+        <v>237992122737.6449</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B6">
-        <v>3733000</v>
+        <v>3828000</v>
       </c>
       <c r="C6">
-        <v>3741000</v>
+        <v>3845000</v>
       </c>
       <c r="D6">
-        <v>3704000</v>
+        <v>3826000</v>
       </c>
       <c r="E6">
-        <v>3712000</v>
+        <v>3845000</v>
       </c>
       <c r="F6">
-        <v>1922.6033418899999</v>
+        <v>184.25764787</v>
       </c>
       <c r="G6">
-        <v>7158687449.8008404</v>
+        <v>706806624.20770001</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +740,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E6"/>
+      <selection activeCell="B5" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -770,117 +767,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44595.375</v>
+        <v>44596.375</v>
       </c>
       <c r="B2">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="C2">
-        <v>749</v>
+        <v>803</v>
       </c>
       <c r="D2">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="E2">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="F2">
-        <v>144173345.26859051</v>
+        <v>260841679.30174491</v>
       </c>
       <c r="G2">
-        <v>106801694496.7523</v>
+        <v>199437690294.582</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44596.375</v>
+        <v>44597.375</v>
       </c>
       <c r="B3">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="C3">
-        <v>803</v>
+        <v>846</v>
       </c>
       <c r="D3">
-        <v>743</v>
+        <v>791</v>
       </c>
       <c r="E3">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="F3">
-        <v>260841679.30174491</v>
+        <v>376291335.51913053</v>
       </c>
       <c r="G3">
-        <v>199437690294.582</v>
+        <v>308461745160.88287</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44597.375</v>
+        <v>44598.375</v>
       </c>
       <c r="B4">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="C4">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D4">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="E4">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="F4">
-        <v>376291335.51913053</v>
+        <v>202749678.91299859</v>
       </c>
       <c r="G4">
-        <v>308461745160.88287</v>
+        <v>166604646971.0715</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44598.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B5">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="C5">
-        <v>839</v>
+        <v>1030</v>
       </c>
       <c r="D5">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="E5">
-        <v>833</v>
+        <v>1020</v>
       </c>
       <c r="F5">
-        <v>202749678.91299859</v>
+        <v>893557734.4057225</v>
       </c>
       <c r="G5">
-        <v>166604646971.0715</v>
+        <v>831715955341.72168</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B6">
-        <v>834</v>
+        <v>1020</v>
       </c>
       <c r="C6">
-        <v>835</v>
+        <v>1030</v>
       </c>
       <c r="D6">
-        <v>828</v>
+        <v>1015</v>
       </c>
       <c r="E6">
-        <v>828</v>
+        <v>1025</v>
       </c>
       <c r="F6">
-        <v>5776292.0621880498</v>
+        <v>5631018.3241960797</v>
       </c>
       <c r="G6">
-        <v>4801347774.7736826</v>
+        <v>5755134025.9271116</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +890,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E6"/>
+      <selection activeCell="B5" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -920,117 +917,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44595.375</v>
+        <v>44596.375</v>
       </c>
       <c r="B2">
-        <v>133700</v>
+        <v>136000</v>
       </c>
       <c r="C2">
-        <v>136250</v>
+        <v>147900</v>
       </c>
       <c r="D2">
-        <v>130600</v>
+        <v>133650</v>
       </c>
       <c r="E2">
-        <v>136250</v>
+        <v>147750</v>
       </c>
       <c r="F2">
-        <v>24745.991472379999</v>
+        <v>66117.093936129997</v>
       </c>
       <c r="G2">
-        <v>3300710960.868464</v>
+        <v>9239409730.682066</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44596.375</v>
+        <v>44597.375</v>
       </c>
       <c r="B3">
-        <v>136000</v>
+        <v>147700</v>
       </c>
       <c r="C3">
-        <v>147900</v>
+        <v>151650</v>
       </c>
       <c r="D3">
-        <v>133650</v>
+        <v>144850</v>
       </c>
       <c r="E3">
-        <v>147750</v>
+        <v>149450</v>
       </c>
       <c r="F3">
-        <v>66117.093936129997</v>
+        <v>57068.745556430003</v>
       </c>
       <c r="G3">
-        <v>9239409730.682066</v>
+        <v>8484345034.0683746</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44597.375</v>
+        <v>44598.375</v>
       </c>
       <c r="B4">
-        <v>147700</v>
+        <v>149500</v>
       </c>
       <c r="C4">
-        <v>151650</v>
+        <v>156800</v>
       </c>
       <c r="D4">
-        <v>144850</v>
+        <v>147800</v>
       </c>
       <c r="E4">
-        <v>149450</v>
+        <v>155550</v>
       </c>
       <c r="F4">
-        <v>57068.745556430003</v>
+        <v>51615.845872830003</v>
       </c>
       <c r="G4">
-        <v>8484345034.0683746</v>
+        <v>7856769062.2323704</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44598.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B5">
-        <v>149500</v>
+        <v>155800</v>
       </c>
       <c r="C5">
-        <v>156800</v>
+        <v>170350</v>
       </c>
       <c r="D5">
-        <v>147800</v>
+        <v>153300</v>
       </c>
       <c r="E5">
-        <v>155550</v>
+        <v>167450</v>
       </c>
       <c r="F5">
-        <v>51615.845872830003</v>
+        <v>109070.19199591001</v>
       </c>
       <c r="G5">
-        <v>7856769062.2323704</v>
+        <v>17407873131.958759</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B6">
-        <v>155800</v>
+        <v>167650</v>
       </c>
       <c r="C6">
-        <v>156000</v>
+        <v>168050</v>
       </c>
       <c r="D6">
-        <v>154050</v>
+        <v>167300</v>
       </c>
       <c r="E6">
-        <v>154350</v>
+        <v>168050</v>
       </c>
       <c r="F6">
-        <v>766.32291621000002</v>
+        <v>106.49619161</v>
       </c>
       <c r="G6">
-        <v>118819598.08954249</v>
+        <v>17860775.504609998</v>
       </c>
     </row>
   </sheetData>
@@ -1068,117 +1065,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44595.375</v>
+        <v>44596.375</v>
       </c>
       <c r="B2">
-        <v>10710</v>
+        <v>10720</v>
       </c>
       <c r="C2">
-        <v>10820</v>
+        <v>11410</v>
       </c>
       <c r="D2">
-        <v>10230</v>
+        <v>10570</v>
       </c>
       <c r="E2">
-        <v>10720</v>
+        <v>11400</v>
       </c>
       <c r="F2">
-        <v>2402802.7154329601</v>
+        <v>3085377.28339318</v>
       </c>
       <c r="G2">
-        <v>25256668564.707432</v>
+        <v>33876522067.15955</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44596.375</v>
+        <v>44597.375</v>
       </c>
       <c r="B3">
-        <v>10720</v>
+        <v>11400</v>
       </c>
       <c r="C3">
-        <v>11410</v>
+        <v>12610</v>
       </c>
       <c r="D3">
-        <v>10570</v>
+        <v>11230</v>
       </c>
       <c r="E3">
-        <v>11400</v>
+        <v>12310</v>
       </c>
       <c r="F3">
-        <v>3085377.28339318</v>
+        <v>5897986.33194598</v>
       </c>
       <c r="G3">
-        <v>33876522067.15955</v>
+        <v>70680622605.460892</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44597.375</v>
+        <v>44598.375</v>
       </c>
       <c r="B4">
-        <v>11400</v>
+        <v>12310</v>
       </c>
       <c r="C4">
-        <v>12610</v>
+        <v>13050</v>
       </c>
       <c r="D4">
-        <v>11230</v>
+        <v>12190</v>
       </c>
       <c r="E4">
-        <v>12310</v>
+        <v>12930</v>
       </c>
       <c r="F4">
-        <v>5897986.33194598</v>
+        <v>5722140.2679266697</v>
       </c>
       <c r="G4">
-        <v>70680622605.460892</v>
+        <v>72523061946.066132</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44598.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B5">
-        <v>12310</v>
+        <v>12940</v>
       </c>
       <c r="C5">
-        <v>13050</v>
+        <v>14070</v>
       </c>
       <c r="D5">
-        <v>12190</v>
+        <v>12680</v>
       </c>
       <c r="E5">
-        <v>12930</v>
+        <v>13550</v>
       </c>
       <c r="F5">
-        <v>5722140.2679266697</v>
+        <v>9111542.2122325599</v>
       </c>
       <c r="G5">
-        <v>72523061946.066132</v>
+        <v>122879488067.49159</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B6">
-        <v>12940</v>
+        <v>13540</v>
       </c>
       <c r="C6">
-        <v>12940</v>
+        <v>13570</v>
       </c>
       <c r="D6">
-        <v>12730</v>
+        <v>13530</v>
       </c>
       <c r="E6">
-        <v>12780</v>
+        <v>13530</v>
       </c>
       <c r="F6">
-        <v>188359.07174044001</v>
+        <v>5864.86980399</v>
       </c>
       <c r="G6">
-        <v>2416173623.07125</v>
+        <v>79427368.706689402</v>
       </c>
     </row>
   </sheetData>

--- a/hi1.xlsx
+++ b/hi1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugang/Documents/GitHub/backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35F31BB-6ADE-C547-BB63-1A88E28A1A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F6746A-F827-974C-B223-E045D935C8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,117 +467,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44596.375</v>
+        <v>44597.375</v>
       </c>
       <c r="B2">
-        <v>45835000</v>
+        <v>50613000</v>
       </c>
       <c r="C2">
-        <v>50843000</v>
+        <v>51488000</v>
       </c>
       <c r="D2">
-        <v>45500000</v>
+        <v>50216000</v>
       </c>
       <c r="E2">
-        <v>50633000</v>
+        <v>50788000</v>
       </c>
       <c r="F2">
-        <v>7451.4646505500004</v>
+        <v>5618.4222044300004</v>
       </c>
       <c r="G2">
-        <v>355674962643.43878</v>
+        <v>285441834169.823</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44597.375</v>
+        <v>44598.375</v>
       </c>
       <c r="B3">
-        <v>50613000</v>
+        <v>50788000</v>
       </c>
       <c r="C3">
-        <v>51488000</v>
+        <v>52022000</v>
       </c>
       <c r="D3">
-        <v>50216000</v>
+        <v>50400000</v>
       </c>
       <c r="E3">
-        <v>50788000</v>
+        <v>51732000</v>
       </c>
       <c r="F3">
-        <v>5618.4222044300004</v>
+        <v>4046.19621542</v>
       </c>
       <c r="G3">
-        <v>285441834169.823</v>
+        <v>206661446937.42889</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44598.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B4">
-        <v>50788000</v>
+        <v>51678000</v>
       </c>
       <c r="C4">
-        <v>52022000</v>
+        <v>54110000</v>
       </c>
       <c r="D4">
-        <v>50400000</v>
+        <v>51084000</v>
       </c>
       <c r="E4">
-        <v>51732000</v>
+        <v>53511000</v>
       </c>
       <c r="F4">
-        <v>4046.19621542</v>
+        <v>6414.9904576500003</v>
       </c>
       <c r="G4">
-        <v>206661446937.42889</v>
+        <v>337553682455.38922</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B5">
-        <v>51678000</v>
+        <v>53511000</v>
       </c>
       <c r="C5">
-        <v>54110000</v>
+        <v>55321000</v>
       </c>
       <c r="D5">
-        <v>51084000</v>
+        <v>52325000</v>
       </c>
       <c r="E5">
-        <v>53511000</v>
+        <v>53651000</v>
       </c>
       <c r="F5">
-        <v>6414.9904576500003</v>
+        <v>10799.768388910001</v>
       </c>
       <c r="G5">
-        <v>337553682455.38922</v>
+        <v>578845327237.11243</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44600.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B6">
-        <v>53511000</v>
+        <v>53651000</v>
       </c>
       <c r="C6">
-        <v>53700000</v>
+        <v>53766000</v>
       </c>
       <c r="D6">
-        <v>53499000</v>
+        <v>53633000</v>
       </c>
       <c r="E6">
-        <v>53699000</v>
+        <v>53740000</v>
       </c>
       <c r="F6">
-        <v>18.37690478</v>
+        <v>14.54260448</v>
       </c>
       <c r="G6">
-        <v>984838929.93613005</v>
+        <v>781356532.10836005</v>
       </c>
     </row>
   </sheetData>
@@ -617,117 +617,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44596.375</v>
+        <v>44597.375</v>
       </c>
       <c r="B2">
-        <v>3307000</v>
+        <v>3651000</v>
       </c>
       <c r="C2">
-        <v>3654000</v>
+        <v>3759000</v>
       </c>
       <c r="D2">
-        <v>3280000</v>
+        <v>3613000</v>
       </c>
       <c r="E2">
-        <v>3650000</v>
+        <v>3695000</v>
       </c>
       <c r="F2">
-        <v>93357.017292610006</v>
+        <v>63702.129504140001</v>
       </c>
       <c r="G2">
-        <v>324433068312.76678</v>
+        <v>234372047716.52579</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44597.375</v>
+        <v>44598.375</v>
       </c>
       <c r="B3">
-        <v>3651000</v>
+        <v>3697000</v>
       </c>
       <c r="C3">
-        <v>3759000</v>
+        <v>3753000</v>
       </c>
       <c r="D3">
-        <v>3613000</v>
+        <v>3610000</v>
       </c>
       <c r="E3">
-        <v>3695000</v>
+        <v>3733000</v>
       </c>
       <c r="F3">
-        <v>63702.129504140001</v>
+        <v>46035.86645817</v>
       </c>
       <c r="G3">
-        <v>234372047716.52579</v>
+        <v>169875741804.7713</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44598.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B4">
-        <v>3697000</v>
+        <v>3733000</v>
       </c>
       <c r="C4">
-        <v>3753000</v>
+        <v>3880000</v>
       </c>
       <c r="D4">
-        <v>3610000</v>
+        <v>3670000</v>
       </c>
       <c r="E4">
-        <v>3733000</v>
+        <v>3830000</v>
       </c>
       <c r="F4">
-        <v>46035.86645817</v>
+        <v>63054.546308899997</v>
       </c>
       <c r="G4">
-        <v>169875741804.7713</v>
+        <v>237992122737.6449</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B5">
-        <v>3733000</v>
+        <v>3828000</v>
       </c>
       <c r="C5">
-        <v>3880000</v>
+        <v>3934000</v>
       </c>
       <c r="D5">
-        <v>3670000</v>
+        <v>3693000</v>
       </c>
       <c r="E5">
-        <v>3830000</v>
+        <v>3801000</v>
       </c>
       <c r="F5">
-        <v>63054.546308899997</v>
+        <v>76304.139245369995</v>
       </c>
       <c r="G5">
-        <v>237992122737.6449</v>
+        <v>290004025020.64587</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44600.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B6">
-        <v>3828000</v>
+        <v>3801000</v>
       </c>
       <c r="C6">
-        <v>3845000</v>
+        <v>3810000</v>
       </c>
       <c r="D6">
-        <v>3826000</v>
+        <v>3801000</v>
       </c>
       <c r="E6">
-        <v>3845000</v>
+        <v>3805000</v>
       </c>
       <c r="F6">
-        <v>184.25764787</v>
+        <v>106.89623139</v>
       </c>
       <c r="G6">
-        <v>706806624.20770001</v>
+        <v>406989051.63726002</v>
       </c>
     </row>
   </sheetData>
@@ -767,117 +767,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44596.375</v>
+        <v>44597.375</v>
       </c>
       <c r="B2">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="C2">
-        <v>803</v>
+        <v>846</v>
       </c>
       <c r="D2">
-        <v>743</v>
+        <v>791</v>
       </c>
       <c r="E2">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="F2">
-        <v>260841679.30174491</v>
+        <v>376291335.51913053</v>
       </c>
       <c r="G2">
-        <v>199437690294.582</v>
+        <v>308461745160.88287</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44597.375</v>
+        <v>44598.375</v>
       </c>
       <c r="B3">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="C3">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="D3">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="E3">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="F3">
-        <v>376291335.51913053</v>
+        <v>202749678.91299859</v>
       </c>
       <c r="G3">
-        <v>308461745160.88287</v>
+        <v>166604646971.0715</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44598.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B4">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="C4">
-        <v>839</v>
+        <v>1030</v>
       </c>
       <c r="D4">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="E4">
-        <v>833</v>
+        <v>1020</v>
       </c>
       <c r="F4">
-        <v>202749678.91299859</v>
+        <v>893557734.4057225</v>
       </c>
       <c r="G4">
-        <v>166604646971.0715</v>
+        <v>831715955341.72168</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B5">
-        <v>834</v>
+        <v>1020</v>
       </c>
       <c r="C5">
-        <v>1030</v>
+        <v>1115</v>
       </c>
       <c r="D5">
-        <v>823</v>
+        <v>985</v>
       </c>
       <c r="E5">
-        <v>1020</v>
+        <v>1070</v>
       </c>
       <c r="F5">
-        <v>893557734.4057225</v>
+        <v>1064460809.516201</v>
       </c>
       <c r="G5">
-        <v>831715955341.72168</v>
+        <v>1113812985185.1121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44600.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B6">
-        <v>1020</v>
+        <v>1070</v>
       </c>
       <c r="C6">
-        <v>1030</v>
+        <v>1075</v>
       </c>
       <c r="D6">
-        <v>1015</v>
+        <v>1065</v>
       </c>
       <c r="E6">
-        <v>1025</v>
+        <v>1070</v>
       </c>
       <c r="F6">
-        <v>5631018.3241960797</v>
+        <v>2938489.1123176399</v>
       </c>
       <c r="G6">
-        <v>5755134025.9271116</v>
+        <v>3147042221.2475128</v>
       </c>
     </row>
   </sheetData>
@@ -894,6 +894,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -917,117 +920,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44596.375</v>
+        <v>44597.375</v>
       </c>
       <c r="B2">
-        <v>136000</v>
+        <v>147700</v>
       </c>
       <c r="C2">
-        <v>147900</v>
+        <v>151650</v>
       </c>
       <c r="D2">
-        <v>133650</v>
+        <v>144850</v>
       </c>
       <c r="E2">
-        <v>147750</v>
+        <v>149450</v>
       </c>
       <c r="F2">
-        <v>66117.093936129997</v>
+        <v>57068.745556430003</v>
       </c>
       <c r="G2">
-        <v>9239409730.682066</v>
+        <v>8484345034.0683746</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44597.375</v>
+        <v>44598.375</v>
       </c>
       <c r="B3">
-        <v>147700</v>
+        <v>149500</v>
       </c>
       <c r="C3">
-        <v>151650</v>
+        <v>156800</v>
       </c>
       <c r="D3">
-        <v>144850</v>
+        <v>147800</v>
       </c>
       <c r="E3">
-        <v>149450</v>
+        <v>155550</v>
       </c>
       <c r="F3">
-        <v>57068.745556430003</v>
+        <v>51615.845872830003</v>
       </c>
       <c r="G3">
-        <v>8484345034.0683746</v>
+        <v>7856769062.2323704</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44598.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B4">
-        <v>149500</v>
+        <v>155800</v>
       </c>
       <c r="C4">
-        <v>156800</v>
+        <v>170350</v>
       </c>
       <c r="D4">
-        <v>147800</v>
+        <v>153300</v>
       </c>
       <c r="E4">
-        <v>155550</v>
+        <v>167450</v>
       </c>
       <c r="F4">
-        <v>51615.845872830003</v>
+        <v>109070.19199591001</v>
       </c>
       <c r="G4">
-        <v>7856769062.2323704</v>
+        <v>17407873131.958759</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B5">
-        <v>155800</v>
+        <v>167650</v>
       </c>
       <c r="C5">
-        <v>170350</v>
+        <v>174500</v>
       </c>
       <c r="D5">
-        <v>153300</v>
+        <v>160000</v>
       </c>
       <c r="E5">
-        <v>167450</v>
+        <v>163350</v>
       </c>
       <c r="F5">
-        <v>109070.19199591001</v>
+        <v>73654.405262109998</v>
       </c>
       <c r="G5">
-        <v>17407873131.958759</v>
+        <v>12336775535.573681</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44600.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B6">
-        <v>167650</v>
+        <v>163350</v>
       </c>
       <c r="C6">
-        <v>168050</v>
+        <v>163650</v>
       </c>
       <c r="D6">
-        <v>167300</v>
+        <v>162100</v>
       </c>
       <c r="E6">
-        <v>168050</v>
+        <v>163500</v>
       </c>
       <c r="F6">
-        <v>106.49619161</v>
+        <v>372.28898562000001</v>
       </c>
       <c r="G6">
-        <v>17860775.504609998</v>
+        <v>60562238.522673003</v>
       </c>
     </row>
   </sheetData>
@@ -1065,117 +1068,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44596.375</v>
+        <v>44597.375</v>
       </c>
       <c r="B2">
-        <v>10720</v>
+        <v>11400</v>
       </c>
       <c r="C2">
-        <v>11410</v>
+        <v>12610</v>
       </c>
       <c r="D2">
-        <v>10570</v>
+        <v>11230</v>
       </c>
       <c r="E2">
-        <v>11400</v>
+        <v>12310</v>
       </c>
       <c r="F2">
-        <v>3085377.28339318</v>
+        <v>5897986.33194598</v>
       </c>
       <c r="G2">
-        <v>33876522067.15955</v>
+        <v>70680622605.460892</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44597.375</v>
+        <v>44598.375</v>
       </c>
       <c r="B3">
-        <v>11400</v>
+        <v>12310</v>
       </c>
       <c r="C3">
-        <v>12610</v>
+        <v>13050</v>
       </c>
       <c r="D3">
-        <v>11230</v>
+        <v>12190</v>
       </c>
       <c r="E3">
-        <v>12310</v>
+        <v>12930</v>
       </c>
       <c r="F3">
-        <v>5897986.33194598</v>
+        <v>5722140.2679266697</v>
       </c>
       <c r="G3">
-        <v>70680622605.460892</v>
+        <v>72523061946.066132</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44598.375</v>
+        <v>44599.375</v>
       </c>
       <c r="B4">
-        <v>12310</v>
+        <v>12940</v>
       </c>
       <c r="C4">
-        <v>13050</v>
+        <v>14070</v>
       </c>
       <c r="D4">
-        <v>12190</v>
+        <v>12680</v>
       </c>
       <c r="E4">
-        <v>12930</v>
+        <v>13550</v>
       </c>
       <c r="F4">
-        <v>5722140.2679266697</v>
+        <v>9111542.2122325599</v>
       </c>
       <c r="G4">
-        <v>72523061946.066132</v>
+        <v>122879488067.49159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B5">
-        <v>12940</v>
+        <v>13540</v>
       </c>
       <c r="C5">
-        <v>14070</v>
+        <v>13680</v>
       </c>
       <c r="D5">
-        <v>12680</v>
+        <v>12320</v>
       </c>
       <c r="E5">
-        <v>13550</v>
+        <v>12860</v>
       </c>
       <c r="F5">
-        <v>9111542.2122325599</v>
+        <v>4187698.66572082</v>
       </c>
       <c r="G5">
-        <v>122879488067.49159</v>
+        <v>54244366208.108856</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44600.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B6">
-        <v>13540</v>
+        <v>12870</v>
       </c>
       <c r="C6">
-        <v>13570</v>
+        <v>12900</v>
       </c>
       <c r="D6">
-        <v>13530</v>
+        <v>12800</v>
       </c>
       <c r="E6">
-        <v>13530</v>
+        <v>12850</v>
       </c>
       <c r="F6">
-        <v>5864.86980399</v>
+        <v>11421.789984970001</v>
       </c>
       <c r="G6">
-        <v>79427368.706689402</v>
+        <v>146845575.3881827</v>
       </c>
     </row>
   </sheetData>

--- a/hi1.xlsx
+++ b/hi1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugang/Documents/GitHub/backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705AD0B-452D-3D49-AD55-90C786D354D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2FE72-52EB-FD47-8262-225A5106A10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,117 +467,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B2">
-        <v>51678000</v>
+        <v>53511000</v>
       </c>
       <c r="C2">
-        <v>54110000</v>
+        <v>55321000</v>
       </c>
       <c r="D2">
-        <v>51084000</v>
+        <v>52325000</v>
       </c>
       <c r="E2">
-        <v>53511000</v>
+        <v>53651000</v>
       </c>
       <c r="F2">
-        <v>6414.9904576500003</v>
+        <v>10799.768388910001</v>
       </c>
       <c r="G2">
-        <v>337553682455.38922</v>
+        <v>578845327237.11243</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44600.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B3">
-        <v>53511000</v>
+        <v>53651000</v>
       </c>
       <c r="C3">
-        <v>55321000</v>
+        <v>54000000</v>
       </c>
       <c r="D3">
-        <v>52325000</v>
+        <v>52560000</v>
       </c>
       <c r="E3">
-        <v>53651000</v>
+        <v>53660000</v>
       </c>
       <c r="F3">
-        <v>10799.768388910001</v>
+        <v>5006.3984997300004</v>
       </c>
       <c r="G3">
-        <v>578845327237.11243</v>
+        <v>266603510170.62659</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44601.375</v>
+        <v>44602.375</v>
       </c>
       <c r="B4">
-        <v>53651000</v>
+        <v>53659000</v>
       </c>
       <c r="C4">
-        <v>54000000</v>
+        <v>55380000</v>
       </c>
       <c r="D4">
-        <v>52560000</v>
+        <v>52604000</v>
       </c>
       <c r="E4">
-        <v>53660000</v>
+        <v>53123000</v>
       </c>
       <c r="F4">
-        <v>5006.3984997300004</v>
+        <v>9079.3944226500007</v>
       </c>
       <c r="G4">
-        <v>266603510170.62659</v>
+        <v>488428411754.56018</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44602.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B5">
-        <v>53659000</v>
+        <v>53040000</v>
       </c>
       <c r="C5">
-        <v>55380000</v>
+        <v>53364000</v>
       </c>
       <c r="D5">
-        <v>52604000</v>
+        <v>51300000</v>
       </c>
       <c r="E5">
-        <v>53123000</v>
+        <v>51882000</v>
       </c>
       <c r="F5">
-        <v>9079.3944226500007</v>
+        <v>6124.9469165700002</v>
       </c>
       <c r="G5">
-        <v>488428411754.56018</v>
+        <v>321480090359.74048</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44603.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B6">
-        <v>53040000</v>
+        <v>51875000</v>
       </c>
       <c r="C6">
-        <v>53164000</v>
+        <v>51892000</v>
       </c>
       <c r="D6">
-        <v>53000000</v>
+        <v>51811000</v>
       </c>
       <c r="E6">
-        <v>53000000</v>
+        <v>51889000</v>
       </c>
       <c r="F6">
-        <v>47.988547160000003</v>
+        <v>1.6612636599999999</v>
       </c>
       <c r="G6">
-        <v>2545992556.7498999</v>
+        <v>86128296.135350004</v>
       </c>
     </row>
   </sheetData>
@@ -617,117 +617,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B2">
-        <v>3733000</v>
+        <v>3828000</v>
       </c>
       <c r="C2">
-        <v>3880000</v>
+        <v>3934000</v>
       </c>
       <c r="D2">
-        <v>3670000</v>
+        <v>3693000</v>
       </c>
       <c r="E2">
-        <v>3830000</v>
+        <v>3801000</v>
       </c>
       <c r="F2">
-        <v>63054.546308899997</v>
+        <v>76304.139245369995</v>
       </c>
       <c r="G2">
-        <v>237992122737.6449</v>
+        <v>290004025020.64587</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44600.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B3">
-        <v>3828000</v>
+        <v>3801000</v>
       </c>
       <c r="C3">
-        <v>3934000</v>
+        <v>3944000</v>
       </c>
       <c r="D3">
-        <v>3693000</v>
+        <v>3722000</v>
       </c>
       <c r="E3">
-        <v>3801000</v>
+        <v>3916000</v>
       </c>
       <c r="F3">
-        <v>76304.139245369995</v>
+        <v>40165.239195249997</v>
       </c>
       <c r="G3">
-        <v>290004025020.64587</v>
+        <v>153630183448.02802</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44601.375</v>
+        <v>44602.375</v>
       </c>
       <c r="B4">
-        <v>3801000</v>
+        <v>3917000</v>
       </c>
       <c r="C4">
-        <v>3944000</v>
+        <v>3956000</v>
       </c>
       <c r="D4">
-        <v>3722000</v>
+        <v>3741000</v>
       </c>
       <c r="E4">
-        <v>3916000</v>
+        <v>3754000</v>
       </c>
       <c r="F4">
-        <v>40165.239195249997</v>
+        <v>77904.668466250005</v>
       </c>
       <c r="G4">
-        <v>153630183448.02802</v>
+        <v>300580661371.73682</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44602.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B5">
-        <v>3917000</v>
+        <v>3752000</v>
       </c>
       <c r="C5">
-        <v>3956000</v>
+        <v>3804000</v>
       </c>
       <c r="D5">
-        <v>3741000</v>
+        <v>3510000</v>
       </c>
       <c r="E5">
-        <v>3754000</v>
+        <v>3578000</v>
       </c>
       <c r="F5">
-        <v>77904.668466250005</v>
+        <v>63212.779792289999</v>
       </c>
       <c r="G5">
-        <v>300580661371.73682</v>
+        <v>233143894230.69601</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44603.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B6">
-        <v>3752000</v>
+        <v>3582000</v>
       </c>
       <c r="C6">
-        <v>3757000</v>
+        <v>3582000</v>
       </c>
       <c r="D6">
-        <v>3733000</v>
+        <v>3576000</v>
       </c>
       <c r="E6">
-        <v>3733000</v>
+        <v>3581000</v>
       </c>
       <c r="F6">
-        <v>527.92063715999996</v>
+        <v>10.317986169999999</v>
       </c>
       <c r="G6">
-        <v>1976761690.6138201</v>
+        <v>36913611.027869999</v>
       </c>
     </row>
   </sheetData>
@@ -767,117 +767,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B2">
-        <v>834</v>
+        <v>1020</v>
       </c>
       <c r="C2">
-        <v>1030</v>
+        <v>1115</v>
       </c>
       <c r="D2">
-        <v>823</v>
+        <v>985</v>
       </c>
       <c r="E2">
-        <v>1020</v>
+        <v>1070</v>
       </c>
       <c r="F2">
-        <v>893557734.4057225</v>
+        <v>1064460809.516201</v>
       </c>
       <c r="G2">
-        <v>831715955341.72168</v>
+        <v>1113812985185.1121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44600.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B3">
-        <v>1020</v>
+        <v>1070</v>
       </c>
       <c r="C3">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="D3">
-        <v>985</v>
+        <v>1025</v>
       </c>
       <c r="E3">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="F3">
-        <v>1064460809.516201</v>
+        <v>446282853.51851612</v>
       </c>
       <c r="G3">
-        <v>1113812985185.1121</v>
+        <v>473972851894.54279</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44601.375</v>
+        <v>44602.375</v>
       </c>
       <c r="B4">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="C4">
-        <v>1105</v>
+        <v>1085</v>
       </c>
       <c r="D4">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="E4">
-        <v>1055</v>
+        <v>1010</v>
       </c>
       <c r="F4">
-        <v>446282853.51851612</v>
+        <v>364836636.50418079</v>
       </c>
       <c r="G4">
-        <v>473972851894.54279</v>
+        <v>382661628122.01123</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44602.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B5">
-        <v>1055</v>
+        <v>1010</v>
       </c>
       <c r="C5">
-        <v>1085</v>
+        <v>1015</v>
       </c>
       <c r="D5">
-        <v>1005</v>
+        <v>914</v>
       </c>
       <c r="E5">
-        <v>1010</v>
+        <v>929</v>
       </c>
       <c r="F5">
-        <v>364836636.50418079</v>
+        <v>472333586.44393009</v>
       </c>
       <c r="G5">
-        <v>382661628122.01123</v>
+        <v>461618963706.28833</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44603.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B6">
-        <v>1010</v>
+        <v>929</v>
       </c>
       <c r="C6">
-        <v>1010</v>
+        <v>930</v>
       </c>
       <c r="D6">
-        <v>999</v>
+        <v>928</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>928</v>
       </c>
       <c r="F6">
-        <v>10314061.466515711</v>
+        <v>72024.114610029996</v>
       </c>
       <c r="G6">
-        <v>10340016251.58231</v>
+        <v>66963174.214605317</v>
       </c>
     </row>
   </sheetData>
@@ -917,117 +917,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B2">
-        <v>155800</v>
+        <v>167650</v>
       </c>
       <c r="C2">
-        <v>170350</v>
+        <v>174500</v>
       </c>
       <c r="D2">
-        <v>153300</v>
+        <v>160000</v>
       </c>
       <c r="E2">
-        <v>167450</v>
+        <v>163350</v>
       </c>
       <c r="F2">
-        <v>109070.19199591001</v>
+        <v>73654.405262109998</v>
       </c>
       <c r="G2">
-        <v>17407873131.958759</v>
+        <v>12336775535.573681</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44600.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B3">
-        <v>167650</v>
+        <v>163350</v>
       </c>
       <c r="C3">
-        <v>174500</v>
+        <v>170500</v>
       </c>
       <c r="D3">
-        <v>160000</v>
+        <v>160600</v>
       </c>
       <c r="E3">
-        <v>163350</v>
+        <v>169200</v>
       </c>
       <c r="F3">
-        <v>73654.405262109998</v>
+        <v>59841.440072379999</v>
       </c>
       <c r="G3">
-        <v>12336775535.573681</v>
+        <v>9992681939.0020237</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44601.375</v>
+        <v>44602.375</v>
       </c>
       <c r="B4">
-        <v>163350</v>
+        <v>169350</v>
       </c>
       <c r="C4">
-        <v>170500</v>
+        <v>173800</v>
       </c>
       <c r="D4">
-        <v>160600</v>
+        <v>163150</v>
       </c>
       <c r="E4">
-        <v>169200</v>
+        <v>164350</v>
       </c>
       <c r="F4">
-        <v>59841.440072379999</v>
+        <v>52537.777338569998</v>
       </c>
       <c r="G4">
-        <v>9992681939.0020237</v>
+        <v>8846401437.3678627</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44602.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B5">
-        <v>169350</v>
+        <v>164350</v>
       </c>
       <c r="C5">
-        <v>173800</v>
+        <v>164500</v>
       </c>
       <c r="D5">
-        <v>163150</v>
+        <v>152300</v>
       </c>
       <c r="E5">
-        <v>164350</v>
+        <v>153800</v>
       </c>
       <c r="F5">
-        <v>52537.777338569998</v>
+        <v>36836.204081199998</v>
       </c>
       <c r="G5">
-        <v>8846401437.3678627</v>
+        <v>5883711407.0905514</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44603.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B6">
-        <v>164350</v>
+        <v>153700</v>
       </c>
       <c r="C6">
-        <v>164400</v>
+        <v>153700</v>
       </c>
       <c r="D6">
-        <v>163150</v>
+        <v>153550</v>
       </c>
       <c r="E6">
-        <v>163150</v>
+        <v>153550</v>
       </c>
       <c r="F6">
-        <v>512.72782911000002</v>
+        <v>4.8308172000000003</v>
       </c>
       <c r="G6">
-        <v>84054140.525443494</v>
+        <v>742399.5239115</v>
       </c>
     </row>
   </sheetData>
@@ -1065,117 +1065,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44599.375</v>
+        <v>44600.375</v>
       </c>
       <c r="B2">
-        <v>12940</v>
+        <v>13540</v>
       </c>
       <c r="C2">
-        <v>14070</v>
+        <v>13680</v>
       </c>
       <c r="D2">
-        <v>12680</v>
+        <v>12320</v>
       </c>
       <c r="E2">
-        <v>13550</v>
+        <v>12860</v>
       </c>
       <c r="F2">
-        <v>9111542.2122325599</v>
+        <v>4187698.66572082</v>
       </c>
       <c r="G2">
-        <v>122879488067.49159</v>
+        <v>54244366208.108856</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44600.375</v>
+        <v>44601.375</v>
       </c>
       <c r="B3">
-        <v>13540</v>
+        <v>12870</v>
       </c>
       <c r="C3">
-        <v>13680</v>
+        <v>14810</v>
       </c>
       <c r="D3">
-        <v>12320</v>
+        <v>12360</v>
       </c>
       <c r="E3">
-        <v>12860</v>
+        <v>14520</v>
       </c>
       <c r="F3">
-        <v>4187698.66572082</v>
+        <v>14517709.906635299</v>
       </c>
       <c r="G3">
-        <v>54244366208.108856</v>
+        <v>201122094441.0524</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44601.375</v>
+        <v>44602.375</v>
       </c>
       <c r="B4">
-        <v>12870</v>
+        <v>14520</v>
       </c>
       <c r="C4">
-        <v>14810</v>
+        <v>14730</v>
       </c>
       <c r="D4">
-        <v>12360</v>
+        <v>13290</v>
       </c>
       <c r="E4">
-        <v>14520</v>
+        <v>13380</v>
       </c>
       <c r="F4">
-        <v>14517709.906635299</v>
+        <v>8057140.2775790403</v>
       </c>
       <c r="G4">
-        <v>201122094441.0524</v>
+        <v>113059543751.98801</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44602.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B5">
-        <v>14520</v>
+        <v>13380</v>
       </c>
       <c r="C5">
-        <v>14730</v>
+        <v>13510</v>
       </c>
       <c r="D5">
-        <v>13290</v>
+        <v>11810</v>
       </c>
       <c r="E5">
-        <v>13380</v>
+        <v>12050</v>
       </c>
       <c r="F5">
-        <v>8057140.2775790403</v>
+        <v>3143538.4560359898</v>
       </c>
       <c r="G5">
-        <v>113059543751.98801</v>
+        <v>40306613161.4048</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44603.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B6">
-        <v>13380</v>
+        <v>12050</v>
       </c>
       <c r="C6">
-        <v>13450</v>
+        <v>12050</v>
       </c>
       <c r="D6">
-        <v>13250</v>
+        <v>12050</v>
       </c>
       <c r="E6">
-        <v>13280</v>
+        <v>12050</v>
       </c>
       <c r="F6">
-        <v>37263.573835650001</v>
+        <v>461.78849966000001</v>
       </c>
       <c r="G6">
-        <v>496682232.33002287</v>
+        <v>5564551.420903</v>
       </c>
     </row>
   </sheetData>

--- a/hi1.xlsx
+++ b/hi1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugang/Documents/GitHub/backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2FE72-52EB-FD47-8262-225A5106A10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61126152-37D8-FE40-907C-5457FC72B64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E6"/>
+      <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,117 +467,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44600.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B2">
-        <v>53511000</v>
+        <v>53040000</v>
       </c>
       <c r="C2">
-        <v>55321000</v>
+        <v>53364000</v>
       </c>
       <c r="D2">
-        <v>52325000</v>
+        <v>51300000</v>
       </c>
       <c r="E2">
-        <v>53651000</v>
+        <v>51882000</v>
       </c>
       <c r="F2">
-        <v>10799.768388910001</v>
+        <v>6124.9469165700002</v>
       </c>
       <c r="G2">
-        <v>578845327237.11243</v>
+        <v>321480090359.74048</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44601.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B3">
-        <v>53651000</v>
+        <v>51875000</v>
       </c>
       <c r="C3">
-        <v>54000000</v>
+        <v>52299000</v>
       </c>
       <c r="D3">
-        <v>52560000</v>
+        <v>50835000</v>
       </c>
       <c r="E3">
-        <v>53660000</v>
+        <v>51597000</v>
       </c>
       <c r="F3">
-        <v>5006.3984997300004</v>
+        <v>4680.1680496500003</v>
       </c>
       <c r="G3">
-        <v>266603510170.62659</v>
+        <v>241620206211.6828</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44602.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B4">
-        <v>53659000</v>
+        <v>51619000</v>
       </c>
       <c r="C4">
-        <v>55380000</v>
+        <v>52190000</v>
       </c>
       <c r="D4">
-        <v>52604000</v>
+        <v>51400000</v>
       </c>
       <c r="E4">
-        <v>53123000</v>
+        <v>51550000</v>
       </c>
       <c r="F4">
-        <v>9079.3944226500007</v>
+        <v>2737.45244662</v>
       </c>
       <c r="G4">
-        <v>488428411754.56018</v>
+        <v>141796428812.65179</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44603.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B5">
-        <v>53040000</v>
+        <v>51550000</v>
       </c>
       <c r="C5">
-        <v>53364000</v>
+        <v>52041000</v>
       </c>
       <c r="D5">
-        <v>51300000</v>
+        <v>50744000</v>
       </c>
       <c r="E5">
-        <v>51882000</v>
+        <v>51586000</v>
       </c>
       <c r="F5">
-        <v>6124.9469165700002</v>
+        <v>4253.6279360999997</v>
       </c>
       <c r="G5">
-        <v>321480090359.74048</v>
+        <v>218529350233.54779</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44604.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B6">
-        <v>51875000</v>
+        <v>51586000</v>
       </c>
       <c r="C6">
-        <v>51892000</v>
+        <v>53740000</v>
       </c>
       <c r="D6">
-        <v>51811000</v>
+        <v>51462000</v>
       </c>
       <c r="E6">
-        <v>51889000</v>
+        <v>53565000</v>
       </c>
       <c r="F6">
-        <v>1.6612636599999999</v>
+        <v>3512.34118635</v>
       </c>
       <c r="G6">
-        <v>86128296.135350004</v>
+        <v>186160008895.44931</v>
       </c>
     </row>
   </sheetData>
@@ -590,10 +590,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E6"/>
+      <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -617,117 +620,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44600.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B2">
-        <v>3828000</v>
+        <v>3752000</v>
       </c>
       <c r="C2">
-        <v>3934000</v>
+        <v>3804000</v>
       </c>
       <c r="D2">
-        <v>3693000</v>
+        <v>3510000</v>
       </c>
       <c r="E2">
-        <v>3801000</v>
+        <v>3578000</v>
       </c>
       <c r="F2">
-        <v>76304.139245369995</v>
+        <v>63212.779792289999</v>
       </c>
       <c r="G2">
-        <v>290004025020.64587</v>
+        <v>233143894230.69601</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44601.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B3">
-        <v>3801000</v>
+        <v>3582000</v>
       </c>
       <c r="C3">
-        <v>3944000</v>
+        <v>3630000</v>
       </c>
       <c r="D3">
-        <v>3722000</v>
+        <v>3490000</v>
       </c>
       <c r="E3">
-        <v>3916000</v>
+        <v>3565000</v>
       </c>
       <c r="F3">
-        <v>40165.239195249997</v>
+        <v>47259.828478509997</v>
       </c>
       <c r="G3">
-        <v>153630183448.02802</v>
+        <v>168526786647.80829</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44602.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B4">
-        <v>3917000</v>
+        <v>3567000</v>
       </c>
       <c r="C4">
-        <v>3956000</v>
+        <v>3609000</v>
       </c>
       <c r="D4">
-        <v>3741000</v>
+        <v>3503000</v>
       </c>
       <c r="E4">
-        <v>3754000</v>
+        <v>3519000</v>
       </c>
       <c r="F4">
-        <v>77904.668466250005</v>
+        <v>25522.191604740001</v>
       </c>
       <c r="G4">
-        <v>300580661371.73682</v>
+        <v>90949768410.69162</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44603.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B5">
-        <v>3752000</v>
+        <v>3519000</v>
       </c>
       <c r="C5">
-        <v>3804000</v>
+        <v>3605000</v>
       </c>
       <c r="D5">
-        <v>3510000</v>
+        <v>3458000</v>
       </c>
       <c r="E5">
-        <v>3578000</v>
+        <v>3553000</v>
       </c>
       <c r="F5">
-        <v>63212.779792289999</v>
+        <v>42478.681908699997</v>
       </c>
       <c r="G5">
-        <v>233143894230.69601</v>
+        <v>149616288812.71121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44604.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B6">
-        <v>3582000</v>
+        <v>3553000</v>
       </c>
       <c r="C6">
-        <v>3582000</v>
+        <v>3775000</v>
       </c>
       <c r="D6">
-        <v>3576000</v>
+        <v>3536000</v>
       </c>
       <c r="E6">
-        <v>3581000</v>
+        <v>3771000</v>
       </c>
       <c r="F6">
-        <v>10.317986169999999</v>
+        <v>36581.85124109</v>
       </c>
       <c r="G6">
-        <v>36913611.027869999</v>
+        <v>134895462444.515</v>
       </c>
     </row>
   </sheetData>
@@ -740,10 +743,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E6"/>
+      <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -767,117 +773,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44600.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B2">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C2">
-        <v>1115</v>
+        <v>1015</v>
       </c>
       <c r="D2">
-        <v>985</v>
+        <v>914</v>
       </c>
       <c r="E2">
-        <v>1070</v>
+        <v>929</v>
       </c>
       <c r="F2">
-        <v>1064460809.516201</v>
+        <v>472333586.44393009</v>
       </c>
       <c r="G2">
-        <v>1113812985185.1121</v>
+        <v>461618963706.28833</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44601.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B3">
-        <v>1070</v>
+        <v>929</v>
       </c>
       <c r="C3">
-        <v>1105</v>
+        <v>1040</v>
       </c>
       <c r="D3">
-        <v>1025</v>
+        <v>910</v>
       </c>
       <c r="E3">
-        <v>1055</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>446282853.51851612</v>
+        <v>554561874.835976</v>
       </c>
       <c r="G3">
-        <v>473972851894.54279</v>
+        <v>537409407283.68652</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44602.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B4">
-        <v>1055</v>
+        <v>1005</v>
       </c>
       <c r="C4">
-        <v>1085</v>
+        <v>1040</v>
       </c>
       <c r="D4">
-        <v>1005</v>
+        <v>981</v>
       </c>
       <c r="E4">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="F4">
-        <v>364836636.50418079</v>
+        <v>264616927.449496</v>
       </c>
       <c r="G4">
-        <v>382661628122.01123</v>
+        <v>266198936512.89111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44603.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B5">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="C5">
-        <v>1015</v>
+        <v>995</v>
       </c>
       <c r="D5">
-        <v>914</v>
+        <v>951</v>
       </c>
       <c r="E5">
-        <v>929</v>
+        <v>972</v>
       </c>
       <c r="F5">
-        <v>472333586.44393009</v>
+        <v>356980651.79040748</v>
       </c>
       <c r="G5">
-        <v>461618963706.28833</v>
+        <v>345971127887.15833</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44604.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B6">
-        <v>929</v>
+        <v>972</v>
       </c>
       <c r="C6">
-        <v>930</v>
+        <v>1020</v>
       </c>
       <c r="D6">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="E6">
-        <v>928</v>
+        <v>1010</v>
       </c>
       <c r="F6">
-        <v>72024.114610029996</v>
+        <v>203226143.83647451</v>
       </c>
       <c r="G6">
-        <v>66963174.214605317</v>
+        <v>203072870166.6297</v>
       </c>
     </row>
   </sheetData>
@@ -890,10 +896,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E6"/>
+      <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -917,117 +926,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44600.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B2">
-        <v>167650</v>
+        <v>164350</v>
       </c>
       <c r="C2">
-        <v>174500</v>
+        <v>164500</v>
       </c>
       <c r="D2">
-        <v>160000</v>
+        <v>152300</v>
       </c>
       <c r="E2">
-        <v>163350</v>
+        <v>153800</v>
       </c>
       <c r="F2">
-        <v>73654.405262109998</v>
+        <v>36836.204081199998</v>
       </c>
       <c r="G2">
-        <v>12336775535.573681</v>
+        <v>5883711407.0905514</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44601.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B3">
-        <v>163350</v>
+        <v>153700</v>
       </c>
       <c r="C3">
-        <v>170500</v>
+        <v>155500</v>
       </c>
       <c r="D3">
-        <v>160600</v>
+        <v>147300</v>
       </c>
       <c r="E3">
-        <v>169200</v>
+        <v>154800</v>
       </c>
       <c r="F3">
-        <v>59841.440072379999</v>
+        <v>32233.194713230001</v>
       </c>
       <c r="G3">
-        <v>9992681939.0020237</v>
+        <v>4886818022.4862165</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44602.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B4">
-        <v>169350</v>
+        <v>154800</v>
       </c>
       <c r="C4">
-        <v>173800</v>
+        <v>157400</v>
       </c>
       <c r="D4">
-        <v>163150</v>
+        <v>152800</v>
       </c>
       <c r="E4">
-        <v>164350</v>
+        <v>154100</v>
       </c>
       <c r="F4">
-        <v>52537.777338569998</v>
+        <v>19417.067419219999</v>
       </c>
       <c r="G4">
-        <v>8846401437.3678627</v>
+        <v>3004862038.446908</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44603.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B5">
-        <v>164350</v>
+        <v>154100</v>
       </c>
       <c r="C5">
-        <v>164500</v>
+        <v>154600</v>
       </c>
       <c r="D5">
-        <v>152300</v>
+        <v>148500</v>
       </c>
       <c r="E5">
-        <v>153800</v>
+        <v>151300</v>
       </c>
       <c r="F5">
-        <v>36836.204081199998</v>
+        <v>25299.566650119999</v>
       </c>
       <c r="G5">
-        <v>5883711407.0905514</v>
+        <v>3824738035.089963</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44604.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B6">
-        <v>153700</v>
+        <v>151450</v>
       </c>
       <c r="C6">
-        <v>153700</v>
+        <v>159750</v>
       </c>
       <c r="D6">
-        <v>153550</v>
+        <v>150700</v>
       </c>
       <c r="E6">
-        <v>153550</v>
+        <v>159400</v>
       </c>
       <c r="F6">
-        <v>4.8308172000000003</v>
+        <v>16212.54674498</v>
       </c>
       <c r="G6">
-        <v>742399.5239115</v>
+        <v>2531098993.2943149</v>
       </c>
     </row>
   </sheetData>
@@ -1065,117 +1074,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44600.375</v>
+        <v>44603.375</v>
       </c>
       <c r="B2">
-        <v>13540</v>
+        <v>13380</v>
       </c>
       <c r="C2">
-        <v>13680</v>
+        <v>13510</v>
       </c>
       <c r="D2">
-        <v>12320</v>
+        <v>11810</v>
       </c>
       <c r="E2">
-        <v>12860</v>
+        <v>12050</v>
       </c>
       <c r="F2">
-        <v>4187698.66572082</v>
+        <v>3143538.4560359898</v>
       </c>
       <c r="G2">
-        <v>54244366208.108856</v>
+        <v>40306613161.4048</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44601.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B3">
-        <v>12870</v>
+        <v>12050</v>
       </c>
       <c r="C3">
-        <v>14810</v>
+        <v>12180</v>
       </c>
       <c r="D3">
-        <v>12360</v>
+        <v>11310</v>
       </c>
       <c r="E3">
-        <v>14520</v>
+        <v>11680</v>
       </c>
       <c r="F3">
-        <v>14517709.906635299</v>
+        <v>2227722.0061242701</v>
       </c>
       <c r="G3">
-        <v>201122094441.0524</v>
+        <v>26240629085.684521</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44602.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B4">
-        <v>14520</v>
+        <v>11680</v>
       </c>
       <c r="C4">
-        <v>14730</v>
+        <v>11820</v>
       </c>
       <c r="D4">
-        <v>13290</v>
+        <v>11400</v>
       </c>
       <c r="E4">
-        <v>13380</v>
+        <v>11530</v>
       </c>
       <c r="F4">
-        <v>8057140.2775790403</v>
+        <v>1315771.1426343101</v>
       </c>
       <c r="G4">
-        <v>113059543751.98801</v>
+        <v>15237574276.228531</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44603.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B5">
-        <v>13380</v>
+        <v>11520</v>
       </c>
       <c r="C5">
-        <v>13510</v>
+        <v>11720</v>
       </c>
       <c r="D5">
-        <v>11810</v>
+        <v>11010</v>
       </c>
       <c r="E5">
-        <v>12050</v>
+        <v>11330</v>
       </c>
       <c r="F5">
-        <v>3143538.4560359898</v>
+        <v>1827963.6008971101</v>
       </c>
       <c r="G5">
-        <v>40306613161.4048</v>
+        <v>20652797503.963871</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44604.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B6">
-        <v>12050</v>
+        <v>11340</v>
       </c>
       <c r="C6">
-        <v>12050</v>
+        <v>12690</v>
       </c>
       <c r="D6">
-        <v>12050</v>
+        <v>11330</v>
       </c>
       <c r="E6">
-        <v>12050</v>
+        <v>12440</v>
       </c>
       <c r="F6">
-        <v>461.78849966000001</v>
+        <v>5154613.3640086297</v>
       </c>
       <c r="G6">
-        <v>5564551.420903</v>
+        <v>62644922371.817337</v>
       </c>
     </row>
   </sheetData>

--- a/hi1.xlsx
+++ b/hi1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugang/Documents/GitHub/backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61126152-37D8-FE40-907C-5457FC72B64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB15029-707C-A343-A3FB-9713F06BCA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E6"/>
+      <selection activeCell="B5" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,117 +467,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44603.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B2">
-        <v>53040000</v>
+        <v>51875000</v>
       </c>
       <c r="C2">
-        <v>53364000</v>
+        <v>52299000</v>
       </c>
       <c r="D2">
-        <v>51300000</v>
+        <v>50835000</v>
       </c>
       <c r="E2">
-        <v>51882000</v>
+        <v>51597000</v>
       </c>
       <c r="F2">
-        <v>6124.9469165700002</v>
+        <v>4680.1680496500003</v>
       </c>
       <c r="G2">
-        <v>321480090359.74048</v>
+        <v>241620206211.6828</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44604.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B3">
-        <v>51875000</v>
+        <v>51619000</v>
       </c>
       <c r="C3">
-        <v>52299000</v>
+        <v>52190000</v>
       </c>
       <c r="D3">
-        <v>50835000</v>
+        <v>51400000</v>
       </c>
       <c r="E3">
-        <v>51597000</v>
+        <v>51550000</v>
       </c>
       <c r="F3">
-        <v>4680.1680496500003</v>
+        <v>2737.45244662</v>
       </c>
       <c r="G3">
-        <v>241620206211.6828</v>
+        <v>141796428812.65179</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44605.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B4">
-        <v>51619000</v>
+        <v>51550000</v>
       </c>
       <c r="C4">
-        <v>52190000</v>
+        <v>52041000</v>
       </c>
       <c r="D4">
-        <v>51400000</v>
+        <v>50744000</v>
       </c>
       <c r="E4">
-        <v>51550000</v>
+        <v>51586000</v>
       </c>
       <c r="F4">
-        <v>2737.45244662</v>
+        <v>4253.6279360999997</v>
       </c>
       <c r="G4">
-        <v>141796428812.65179</v>
+        <v>218529350233.54779</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44606.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B5">
-        <v>51550000</v>
+        <v>51586000</v>
       </c>
       <c r="C5">
-        <v>52041000</v>
+        <v>53998000</v>
       </c>
       <c r="D5">
-        <v>50744000</v>
+        <v>51462000</v>
       </c>
       <c r="E5">
-        <v>51586000</v>
+        <v>53832000</v>
       </c>
       <c r="F5">
-        <v>4253.6279360999997</v>
+        <v>4794.4694644800002</v>
       </c>
       <c r="G5">
-        <v>218529350233.54779</v>
+        <v>254795069714.37589</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44607.375</v>
+        <v>44608.375</v>
       </c>
       <c r="B6">
-        <v>51586000</v>
+        <v>53835000</v>
       </c>
       <c r="C6">
-        <v>53740000</v>
+        <v>53842000</v>
       </c>
       <c r="D6">
-        <v>51462000</v>
+        <v>53310000</v>
       </c>
       <c r="E6">
-        <v>53565000</v>
+        <v>53414000</v>
       </c>
       <c r="F6">
-        <v>3512.34118635</v>
+        <v>633.18196280999996</v>
       </c>
       <c r="G6">
-        <v>186160008895.44931</v>
+        <v>33900826789.469501</v>
       </c>
     </row>
   </sheetData>
@@ -590,13 +590,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E6"/>
+      <selection activeCell="B5" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -620,117 +617,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44603.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B2">
-        <v>3752000</v>
+        <v>3582000</v>
       </c>
       <c r="C2">
-        <v>3804000</v>
+        <v>3630000</v>
       </c>
       <c r="D2">
-        <v>3510000</v>
+        <v>3490000</v>
       </c>
       <c r="E2">
-        <v>3578000</v>
+        <v>3565000</v>
       </c>
       <c r="F2">
-        <v>63212.779792289999</v>
+        <v>47259.828478509997</v>
       </c>
       <c r="G2">
-        <v>233143894230.69601</v>
+        <v>168526786647.80829</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44604.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B3">
-        <v>3582000</v>
+        <v>3567000</v>
       </c>
       <c r="C3">
-        <v>3630000</v>
+        <v>3609000</v>
       </c>
       <c r="D3">
-        <v>3490000</v>
+        <v>3503000</v>
       </c>
       <c r="E3">
-        <v>3565000</v>
+        <v>3519000</v>
       </c>
       <c r="F3">
-        <v>47259.828478509997</v>
+        <v>25522.191604740001</v>
       </c>
       <c r="G3">
-        <v>168526786647.80829</v>
+        <v>90949768410.69162</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44605.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B4">
-        <v>3567000</v>
+        <v>3519000</v>
       </c>
       <c r="C4">
-        <v>3609000</v>
+        <v>3605000</v>
       </c>
       <c r="D4">
-        <v>3503000</v>
+        <v>3458000</v>
       </c>
       <c r="E4">
-        <v>3519000</v>
+        <v>3553000</v>
       </c>
       <c r="F4">
-        <v>25522.191604740001</v>
+        <v>42478.681908699997</v>
       </c>
       <c r="G4">
-        <v>90949768410.69162</v>
+        <v>149616288812.71121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44606.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B5">
-        <v>3519000</v>
+        <v>3553000</v>
       </c>
       <c r="C5">
-        <v>3605000</v>
+        <v>3859000</v>
       </c>
       <c r="D5">
-        <v>3458000</v>
+        <v>3536000</v>
       </c>
       <c r="E5">
-        <v>3553000</v>
+        <v>3847000</v>
       </c>
       <c r="F5">
-        <v>42478.681908699997</v>
+        <v>52135.856304289999</v>
       </c>
       <c r="G5">
-        <v>149616288812.71121</v>
+        <v>193771414573.97659</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44607.375</v>
+        <v>44608.375</v>
       </c>
       <c r="B6">
-        <v>3553000</v>
+        <v>3847000</v>
       </c>
       <c r="C6">
-        <v>3775000</v>
+        <v>3858000</v>
       </c>
       <c r="D6">
-        <v>3536000</v>
+        <v>3797000</v>
       </c>
       <c r="E6">
-        <v>3771000</v>
+        <v>3811000</v>
       </c>
       <c r="F6">
-        <v>36581.85124109</v>
+        <v>7520.2021006699997</v>
       </c>
       <c r="G6">
-        <v>134895462444.515</v>
+        <v>28764010003.002998</v>
       </c>
     </row>
   </sheetData>
@@ -743,13 +740,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E6"/>
+      <selection activeCell="B5" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -773,117 +767,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44603.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B2">
-        <v>1010</v>
+        <v>929</v>
       </c>
       <c r="C2">
-        <v>1015</v>
+        <v>1040</v>
       </c>
       <c r="D2">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E2">
-        <v>929</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>472333586.44393009</v>
+        <v>554561874.835976</v>
       </c>
       <c r="G2">
-        <v>461618963706.28833</v>
+        <v>537409407283.68652</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44604.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B3">
-        <v>929</v>
+        <v>1005</v>
       </c>
       <c r="C3">
         <v>1040</v>
       </c>
       <c r="D3">
-        <v>910</v>
+        <v>981</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="F3">
-        <v>554561874.835976</v>
+        <v>264616927.449496</v>
       </c>
       <c r="G3">
-        <v>537409407283.68652</v>
+        <v>266198936512.89111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44605.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B4">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="C4">
-        <v>1040</v>
+        <v>995</v>
       </c>
       <c r="D4">
-        <v>981</v>
+        <v>951</v>
       </c>
       <c r="E4">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="F4">
-        <v>264616927.449496</v>
+        <v>356980651.79040748</v>
       </c>
       <c r="G4">
-        <v>266198936512.89111</v>
+        <v>345971127887.15833</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44606.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B5">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="C5">
-        <v>995</v>
+        <v>1035</v>
       </c>
       <c r="D5">
-        <v>951</v>
+        <v>968</v>
       </c>
       <c r="E5">
-        <v>972</v>
+        <v>1030</v>
       </c>
       <c r="F5">
-        <v>356980651.79040748</v>
+        <v>288423067.24230468</v>
       </c>
       <c r="G5">
-        <v>345971127887.15833</v>
+        <v>288922148622.58667</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44607.375</v>
+        <v>44608.375</v>
       </c>
       <c r="B6">
-        <v>972</v>
+        <v>1025</v>
       </c>
       <c r="C6">
+        <v>1030</v>
+      </c>
+      <c r="D6">
+        <v>1010</v>
+      </c>
+      <c r="E6">
         <v>1020</v>
       </c>
-      <c r="D6">
-        <v>968</v>
-      </c>
-      <c r="E6">
-        <v>1010</v>
-      </c>
       <c r="F6">
-        <v>203226143.83647451</v>
+        <v>46274881.22338859</v>
       </c>
       <c r="G6">
-        <v>203072870166.6297</v>
+        <v>47148277196.156967</v>
       </c>
     </row>
   </sheetData>
@@ -896,13 +890,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E6"/>
+      <selection activeCell="B5" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -926,117 +917,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44603.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B2">
-        <v>164350</v>
+        <v>153700</v>
       </c>
       <c r="C2">
-        <v>164500</v>
+        <v>155500</v>
       </c>
       <c r="D2">
-        <v>152300</v>
+        <v>147300</v>
       </c>
       <c r="E2">
-        <v>153800</v>
+        <v>154800</v>
       </c>
       <c r="F2">
-        <v>36836.204081199998</v>
+        <v>32233.194713230001</v>
       </c>
       <c r="G2">
-        <v>5883711407.0905514</v>
+        <v>4886818022.4862165</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44604.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B3">
-        <v>153700</v>
+        <v>154800</v>
       </c>
       <c r="C3">
-        <v>155500</v>
+        <v>157400</v>
       </c>
       <c r="D3">
-        <v>147300</v>
+        <v>152800</v>
       </c>
       <c r="E3">
-        <v>154800</v>
+        <v>154100</v>
       </c>
       <c r="F3">
-        <v>32233.194713230001</v>
+        <v>19417.067419219999</v>
       </c>
       <c r="G3">
-        <v>4886818022.4862165</v>
+        <v>3004862038.446908</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44605.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B4">
-        <v>154800</v>
+        <v>154100</v>
       </c>
       <c r="C4">
-        <v>157400</v>
+        <v>154600</v>
       </c>
       <c r="D4">
-        <v>152800</v>
+        <v>148500</v>
       </c>
       <c r="E4">
-        <v>154100</v>
+        <v>151300</v>
       </c>
       <c r="F4">
-        <v>19417.067419219999</v>
+        <v>25299.566650119999</v>
       </c>
       <c r="G4">
-        <v>3004862038.446908</v>
+        <v>3824738035.089963</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44606.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B5">
-        <v>154100</v>
+        <v>151450</v>
       </c>
       <c r="C5">
-        <v>154600</v>
+        <v>160050</v>
       </c>
       <c r="D5">
-        <v>148500</v>
+        <v>150700</v>
       </c>
       <c r="E5">
-        <v>151300</v>
+        <v>159300</v>
       </c>
       <c r="F5">
-        <v>25299.566650119999</v>
+        <v>23617.856168099999</v>
       </c>
       <c r="G5">
-        <v>3824738035.089963</v>
+        <v>3702378164.8539701</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44607.375</v>
+        <v>44608.375</v>
       </c>
       <c r="B6">
-        <v>151450</v>
+        <v>159050</v>
       </c>
       <c r="C6">
-        <v>159750</v>
+        <v>159400</v>
       </c>
       <c r="D6">
-        <v>150700</v>
+        <v>156800</v>
       </c>
       <c r="E6">
-        <v>159400</v>
+        <v>157000</v>
       </c>
       <c r="F6">
-        <v>16212.54674498</v>
+        <v>3990.6547962300001</v>
       </c>
       <c r="G6">
-        <v>2531098993.2943149</v>
+        <v>630691905.58437252</v>
       </c>
     </row>
   </sheetData>
@@ -1074,117 +1065,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44603.375</v>
+        <v>44604.375</v>
       </c>
       <c r="B2">
-        <v>13380</v>
+        <v>12050</v>
       </c>
       <c r="C2">
-        <v>13510</v>
+        <v>12180</v>
       </c>
       <c r="D2">
-        <v>11810</v>
+        <v>11310</v>
       </c>
       <c r="E2">
-        <v>12050</v>
+        <v>11680</v>
       </c>
       <c r="F2">
-        <v>3143538.4560359898</v>
+        <v>2227722.0061242701</v>
       </c>
       <c r="G2">
-        <v>40306613161.4048</v>
+        <v>26240629085.684521</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44604.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B3">
-        <v>12050</v>
+        <v>11680</v>
       </c>
       <c r="C3">
-        <v>12180</v>
+        <v>11820</v>
       </c>
       <c r="D3">
-        <v>11310</v>
+        <v>11400</v>
       </c>
       <c r="E3">
-        <v>11680</v>
+        <v>11530</v>
       </c>
       <c r="F3">
-        <v>2227722.0061242701</v>
+        <v>1315771.1426343101</v>
       </c>
       <c r="G3">
-        <v>26240629085.684521</v>
+        <v>15237574276.228531</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44605.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B4">
-        <v>11680</v>
+        <v>11520</v>
       </c>
       <c r="C4">
-        <v>11820</v>
+        <v>11720</v>
       </c>
       <c r="D4">
-        <v>11400</v>
+        <v>11010</v>
       </c>
       <c r="E4">
-        <v>11530</v>
+        <v>11330</v>
       </c>
       <c r="F4">
-        <v>1315771.1426343101</v>
+        <v>1827963.6008971101</v>
       </c>
       <c r="G4">
-        <v>15237574276.228531</v>
+        <v>20652797503.963871</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44606.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B5">
-        <v>11520</v>
+        <v>11340</v>
       </c>
       <c r="C5">
-        <v>11720</v>
+        <v>12700</v>
       </c>
       <c r="D5">
-        <v>11010</v>
+        <v>11330</v>
       </c>
       <c r="E5">
-        <v>11330</v>
+        <v>12550</v>
       </c>
       <c r="F5">
-        <v>1827963.6008971101</v>
+        <v>6328539.7102557998</v>
       </c>
       <c r="G5">
-        <v>20652797503.963871</v>
+        <v>77334749868.543289</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44607.375</v>
+        <v>44608.375</v>
       </c>
       <c r="B6">
-        <v>11340</v>
+        <v>12550</v>
       </c>
       <c r="C6">
-        <v>12690</v>
+        <v>13440</v>
       </c>
       <c r="D6">
-        <v>11330</v>
+        <v>12400</v>
       </c>
       <c r="E6">
-        <v>12440</v>
+        <v>12890</v>
       </c>
       <c r="F6">
-        <v>5154613.3640086297</v>
+        <v>2631325.6006678301</v>
       </c>
       <c r="G6">
-        <v>62644922371.817337</v>
+        <v>34078981871.942249</v>
       </c>
     </row>
   </sheetData>

--- a/hi1.xlsx
+++ b/hi1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugang/Documents/GitHub/backtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB15029-707C-A343-A3FB-9713F06BCA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A009E1-00DA-5943-A12B-05D253FD9671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,9 +441,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -467,117 +464,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44604.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B2">
-        <v>51875000</v>
+        <v>51619000</v>
       </c>
       <c r="C2">
-        <v>52299000</v>
+        <v>52190000</v>
       </c>
       <c r="D2">
-        <v>50835000</v>
+        <v>51400000</v>
       </c>
       <c r="E2">
-        <v>51597000</v>
+        <v>51550000</v>
       </c>
       <c r="F2">
-        <v>4680.1680496500003</v>
+        <v>2737.45244662</v>
       </c>
       <c r="G2">
-        <v>241620206211.6828</v>
+        <v>141796428812.65179</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44605.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B3">
-        <v>51619000</v>
+        <v>51550000</v>
       </c>
       <c r="C3">
-        <v>52190000</v>
+        <v>52041000</v>
       </c>
       <c r="D3">
-        <v>51400000</v>
+        <v>50744000</v>
       </c>
       <c r="E3">
-        <v>51550000</v>
+        <v>51586000</v>
       </c>
       <c r="F3">
-        <v>2737.45244662</v>
+        <v>4253.6279360999997</v>
       </c>
       <c r="G3">
-        <v>141796428812.65179</v>
+        <v>218529350233.54779</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44606.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B4">
-        <v>51550000</v>
+        <v>51586000</v>
       </c>
       <c r="C4">
-        <v>52041000</v>
+        <v>53998000</v>
       </c>
       <c r="D4">
-        <v>50744000</v>
+        <v>51462000</v>
       </c>
       <c r="E4">
-        <v>51586000</v>
+        <v>53832000</v>
       </c>
       <c r="F4">
-        <v>4253.6279360999997</v>
+        <v>4794.4694644800002</v>
       </c>
       <c r="G4">
-        <v>218529350233.54779</v>
+        <v>254795069714.37589</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44607.375</v>
+        <v>44608.375</v>
       </c>
       <c r="B5">
-        <v>51586000</v>
+        <v>53835000</v>
       </c>
       <c r="C5">
-        <v>53998000</v>
+        <v>53842000</v>
       </c>
       <c r="D5">
-        <v>51462000</v>
+        <v>52769000</v>
       </c>
       <c r="E5">
-        <v>53832000</v>
+        <v>53298000</v>
       </c>
       <c r="F5">
-        <v>4794.4694644800002</v>
+        <v>4581.97459643</v>
       </c>
       <c r="G5">
-        <v>254795069714.37589</v>
+        <v>244556760070.1835</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44608.375</v>
+        <v>44609.375</v>
       </c>
       <c r="B6">
-        <v>53835000</v>
+        <v>53298000</v>
       </c>
       <c r="C6">
-        <v>53842000</v>
+        <v>53400000</v>
       </c>
       <c r="D6">
-        <v>53310000</v>
+        <v>53265000</v>
       </c>
       <c r="E6">
-        <v>53414000</v>
+        <v>53400000</v>
       </c>
       <c r="F6">
-        <v>633.18196280999996</v>
+        <v>6.69518155</v>
       </c>
       <c r="G6">
-        <v>33900826789.469501</v>
+        <v>357026858.62584001</v>
       </c>
     </row>
   </sheetData>
@@ -617,117 +614,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44604.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B2">
-        <v>3582000</v>
+        <v>3567000</v>
       </c>
       <c r="C2">
-        <v>3630000</v>
+        <v>3609000</v>
       </c>
       <c r="D2">
-        <v>3490000</v>
+        <v>3503000</v>
       </c>
       <c r="E2">
-        <v>3565000</v>
+        <v>3519000</v>
       </c>
       <c r="F2">
-        <v>47259.828478509997</v>
+        <v>25522.191604740001</v>
       </c>
       <c r="G2">
-        <v>168526786647.80829</v>
+        <v>90949768410.69162</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44605.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B3">
-        <v>3567000</v>
+        <v>3519000</v>
       </c>
       <c r="C3">
-        <v>3609000</v>
+        <v>3605000</v>
       </c>
       <c r="D3">
-        <v>3503000</v>
+        <v>3458000</v>
       </c>
       <c r="E3">
-        <v>3519000</v>
+        <v>3553000</v>
       </c>
       <c r="F3">
-        <v>25522.191604740001</v>
+        <v>42478.681908699997</v>
       </c>
       <c r="G3">
-        <v>90949768410.69162</v>
+        <v>149616288812.71121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44606.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B4">
-        <v>3519000</v>
+        <v>3553000</v>
       </c>
       <c r="C4">
-        <v>3605000</v>
+        <v>3859000</v>
       </c>
       <c r="D4">
-        <v>3458000</v>
+        <v>3536000</v>
       </c>
       <c r="E4">
-        <v>3553000</v>
+        <v>3847000</v>
       </c>
       <c r="F4">
-        <v>42478.681908699997</v>
+        <v>52135.856304289999</v>
       </c>
       <c r="G4">
-        <v>149616288812.71121</v>
+        <v>193771414573.97659</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44607.375</v>
+        <v>44608.375</v>
       </c>
       <c r="B5">
-        <v>3553000</v>
+        <v>3847000</v>
       </c>
       <c r="C5">
-        <v>3859000</v>
+        <v>3858000</v>
       </c>
       <c r="D5">
-        <v>3536000</v>
+        <v>3710000</v>
       </c>
       <c r="E5">
-        <v>3847000</v>
+        <v>3793000</v>
       </c>
       <c r="F5">
-        <v>52135.856304289999</v>
+        <v>46109.796599499998</v>
       </c>
       <c r="G5">
-        <v>193771414573.97659</v>
+        <v>174922696286.31921</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44608.375</v>
+        <v>44609.375</v>
       </c>
       <c r="B6">
-        <v>3847000</v>
+        <v>3791000</v>
       </c>
       <c r="C6">
-        <v>3858000</v>
+        <v>3808000</v>
       </c>
       <c r="D6">
-        <v>3797000</v>
+        <v>3788000</v>
       </c>
       <c r="E6">
-        <v>3811000</v>
+        <v>3807000</v>
       </c>
       <c r="F6">
-        <v>7520.2021006699997</v>
+        <v>157.82772245999999</v>
       </c>
       <c r="G6">
-        <v>28764010003.002998</v>
+        <v>599307238.33737004</v>
       </c>
     </row>
   </sheetData>
@@ -767,117 +764,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44604.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B2">
-        <v>929</v>
+        <v>1005</v>
       </c>
       <c r="C2">
         <v>1040</v>
       </c>
       <c r="D2">
-        <v>910</v>
+        <v>981</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="F2">
-        <v>554561874.835976</v>
+        <v>264616927.449496</v>
       </c>
       <c r="G2">
-        <v>537409407283.68652</v>
+        <v>266198936512.89111</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44605.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B3">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="C3">
-        <v>1040</v>
+        <v>995</v>
       </c>
       <c r="D3">
-        <v>981</v>
+        <v>951</v>
       </c>
       <c r="E3">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="F3">
-        <v>264616927.449496</v>
+        <v>356980651.79040748</v>
       </c>
       <c r="G3">
-        <v>266198936512.89111</v>
+        <v>345971127887.15833</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44606.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B4">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="C4">
-        <v>995</v>
+        <v>1035</v>
       </c>
       <c r="D4">
-        <v>951</v>
+        <v>968</v>
       </c>
       <c r="E4">
-        <v>972</v>
+        <v>1030</v>
       </c>
       <c r="F4">
-        <v>356980651.79040748</v>
+        <v>288423067.24230468</v>
       </c>
       <c r="G4">
-        <v>345971127887.15833</v>
+        <v>288922148622.58667</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44607.375</v>
+        <v>44608.375</v>
       </c>
       <c r="B5">
-        <v>972</v>
+        <v>1025</v>
       </c>
       <c r="C5">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="D5">
-        <v>968</v>
+        <v>987</v>
       </c>
       <c r="E5">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="F5">
-        <v>288423067.24230468</v>
+        <v>237526322.22940251</v>
       </c>
       <c r="G5">
-        <v>288922148622.58667</v>
+        <v>239480845005.8569</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44608.375</v>
+        <v>44609.375</v>
       </c>
       <c r="B6">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="C6">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="D6">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E6">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="F6">
-        <v>46274881.22338859</v>
+        <v>331705.04205861001</v>
       </c>
       <c r="G6">
-        <v>47148277196.156967</v>
+        <v>336928893.92758101</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +887,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -917,117 +914,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44604.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B2">
-        <v>153700</v>
+        <v>154800</v>
       </c>
       <c r="C2">
-        <v>155500</v>
+        <v>157400</v>
       </c>
       <c r="D2">
-        <v>147300</v>
+        <v>152800</v>
       </c>
       <c r="E2">
-        <v>154800</v>
+        <v>154100</v>
       </c>
       <c r="F2">
-        <v>32233.194713230001</v>
+        <v>19417.067419219999</v>
       </c>
       <c r="G2">
-        <v>4886818022.4862165</v>
+        <v>3004862038.446908</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44605.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B3">
-        <v>154800</v>
+        <v>154100</v>
       </c>
       <c r="C3">
-        <v>157400</v>
+        <v>154600</v>
       </c>
       <c r="D3">
-        <v>152800</v>
+        <v>148500</v>
       </c>
       <c r="E3">
-        <v>154100</v>
+        <v>151300</v>
       </c>
       <c r="F3">
-        <v>19417.067419219999</v>
+        <v>25299.566650119999</v>
       </c>
       <c r="G3">
-        <v>3004862038.446908</v>
+        <v>3824738035.089963</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44606.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B4">
-        <v>154100</v>
+        <v>151450</v>
       </c>
       <c r="C4">
-        <v>154600</v>
+        <v>160050</v>
       </c>
       <c r="D4">
-        <v>148500</v>
+        <v>150700</v>
       </c>
       <c r="E4">
-        <v>151300</v>
+        <v>159300</v>
       </c>
       <c r="F4">
-        <v>25299.566650119999</v>
+        <v>23617.856168099999</v>
       </c>
       <c r="G4">
-        <v>3824738035.089963</v>
+        <v>3702378164.8539701</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44607.375</v>
+        <v>44608.375</v>
       </c>
       <c r="B5">
-        <v>151450</v>
+        <v>159050</v>
       </c>
       <c r="C5">
-        <v>160050</v>
+        <v>159400</v>
       </c>
       <c r="D5">
-        <v>150700</v>
+        <v>152500</v>
       </c>
       <c r="E5">
-        <v>159300</v>
+        <v>155100</v>
       </c>
       <c r="F5">
-        <v>23617.856168099999</v>
+        <v>24592.279141750001</v>
       </c>
       <c r="G5">
-        <v>3702378164.8539701</v>
+        <v>3843550415.338583</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44608.375</v>
+        <v>44609.375</v>
       </c>
       <c r="B6">
-        <v>159050</v>
+        <v>155100</v>
       </c>
       <c r="C6">
-        <v>159400</v>
+        <v>155500</v>
       </c>
       <c r="D6">
-        <v>156800</v>
+        <v>155100</v>
       </c>
       <c r="E6">
-        <v>157000</v>
+        <v>155500</v>
       </c>
       <c r="F6">
-        <v>3990.6547962300001</v>
+        <v>97.393480139999994</v>
       </c>
       <c r="G6">
-        <v>630691905.58437252</v>
+        <v>15121208.731515501</v>
       </c>
     </row>
   </sheetData>
@@ -1065,117 +1062,117 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44604.375</v>
+        <v>44605.375</v>
       </c>
       <c r="B2">
-        <v>12050</v>
+        <v>11680</v>
       </c>
       <c r="C2">
-        <v>12180</v>
+        <v>11820</v>
       </c>
       <c r="D2">
-        <v>11310</v>
+        <v>11400</v>
       </c>
       <c r="E2">
-        <v>11680</v>
+        <v>11530</v>
       </c>
       <c r="F2">
-        <v>2227722.0061242701</v>
+        <v>1315771.1426343101</v>
       </c>
       <c r="G2">
-        <v>26240629085.684521</v>
+        <v>15237574276.228531</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44605.375</v>
+        <v>44606.375</v>
       </c>
       <c r="B3">
-        <v>11680</v>
+        <v>11520</v>
       </c>
       <c r="C3">
-        <v>11820</v>
+        <v>11720</v>
       </c>
       <c r="D3">
-        <v>11400</v>
+        <v>11010</v>
       </c>
       <c r="E3">
-        <v>11530</v>
+        <v>11330</v>
       </c>
       <c r="F3">
-        <v>1315771.1426343101</v>
+        <v>1827963.6008971101</v>
       </c>
       <c r="G3">
-        <v>15237574276.228531</v>
+        <v>20652797503.963871</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44606.375</v>
+        <v>44607.375</v>
       </c>
       <c r="B4">
-        <v>11520</v>
+        <v>11340</v>
       </c>
       <c r="C4">
-        <v>11720</v>
+        <v>12700</v>
       </c>
       <c r="D4">
-        <v>11010</v>
+        <v>11330</v>
       </c>
       <c r="E4">
-        <v>11330</v>
+        <v>12550</v>
       </c>
       <c r="F4">
-        <v>1827963.6008971101</v>
+        <v>6328539.7102557998</v>
       </c>
       <c r="G4">
-        <v>20652797503.963871</v>
+        <v>77334749868.543289</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44607.375</v>
+        <v>44608.375</v>
       </c>
       <c r="B5">
-        <v>11340</v>
+        <v>12550</v>
       </c>
       <c r="C5">
-        <v>12700</v>
+        <v>13440</v>
       </c>
       <c r="D5">
-        <v>11330</v>
+        <v>12260</v>
       </c>
       <c r="E5">
-        <v>12550</v>
+        <v>12800</v>
       </c>
       <c r="F5">
-        <v>6328539.7102557998</v>
+        <v>6356973.4200989399</v>
       </c>
       <c r="G5">
-        <v>77334749868.543289</v>
+        <v>81558111223.804489</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44608.375</v>
+        <v>44609.375</v>
       </c>
       <c r="B6">
-        <v>12550</v>
+        <v>12810</v>
       </c>
       <c r="C6">
-        <v>13440</v>
+        <v>12910</v>
       </c>
       <c r="D6">
-        <v>12400</v>
+        <v>12780</v>
       </c>
       <c r="E6">
-        <v>12890</v>
+        <v>12880</v>
       </c>
       <c r="F6">
-        <v>2631325.6006678301</v>
+        <v>9578.3853268799994</v>
       </c>
       <c r="G6">
-        <v>34078981871.942249</v>
+        <v>123184151.4647623</v>
       </c>
     </row>
   </sheetData>
